--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11190"/>
+    <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="312">
   <si>
     <t>##var</t>
   </si>
@@ -74,6 +74,9 @@
     <t>(list#sep=;),string</t>
   </si>
   <si>
+    <t>(list#sep=,),string</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -131,150 +134,162 @@
     <t>3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>1,10,100,10000</t>
   </si>
   <si>
     <t>Landscape</t>
   </si>
   <si>
+    <t>Module03.NiuNiu.Module03Panel</t>
+  </si>
+  <si>
+    <t>Module03Panel</t>
+  </si>
+  <si>
+    <t>Lua</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>module06</t>
+  </si>
+  <si>
+    <t>万炮捕鱼</t>
+  </si>
+  <si>
+    <t>Deep Sea Fishing</t>
+  </si>
+  <si>
+    <t>Module06.OneWPBY.OneWPBYEntry</t>
+  </si>
+  <si>
+    <t>OneWPBYEntry</t>
+  </si>
+  <si>
+    <t>module13</t>
+  </si>
+  <si>
+    <t>功夫熊猫</t>
+  </si>
+  <si>
+    <t>Module13.gfxm.Module13Entry</t>
+  </si>
+  <si>
+    <t>Module13Entry</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>module16</t>
+  </si>
+  <si>
+    <t>纸牌老虎机</t>
+  </si>
+  <si>
+    <t>Module16.ZhiPai.Module16Entry</t>
+  </si>
+  <si>
+    <t>Module16Entry</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>module17</t>
+  </si>
+  <si>
+    <t>楚河汉界</t>
+  </si>
+  <si>
+    <t>Module17.xiangqi.xiangqi_InitProt</t>
+  </si>
+  <si>
+    <t>xiangqi_InitProt</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>module18</t>
+  </si>
+  <si>
+    <t>水浒传</t>
+  </si>
+  <si>
+    <t>Module18.SHZ.shzpanel</t>
+  </si>
+  <si>
+    <t>SHZPanel</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>module19</t>
+  </si>
+  <si>
+    <t>21点</t>
+  </si>
+  <si>
+    <t>Blackjack</t>
+  </si>
+  <si>
+    <t>Module19.Point21_2D.Point21ScenCtrlPanel</t>
+  </si>
+  <si>
+    <t>Point21ScenCtrlPanel</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>module20</t>
+  </si>
+  <si>
+    <t>百家乐</t>
+  </si>
+  <si>
+    <t>Baccarat</t>
+  </si>
+  <si>
+    <t>Module20.Game_Baccara.MainPanel</t>
+  </si>
+  <si>
+    <t>MainPanel</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>module22</t>
+  </si>
+  <si>
+    <t>水果777</t>
+  </si>
+  <si>
+    <t>Fruit slot 777</t>
+  </si>
+  <si>
+    <t>Hotfix.SG777.SG777Entry</t>
+  </si>
+  <si>
+    <t>SG777Entry</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Module03.NiuNiu.Module03Panel</t>
-  </si>
-  <si>
-    <t>Module03Panel</t>
-  </si>
-  <si>
-    <t>Lua</t>
-  </si>
-  <si>
-    <t>module06</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>万炮捕鱼</t>
-  </si>
-  <si>
-    <t>Deep Sea Fishing</t>
-  </si>
-  <si>
-    <t>Module06.OneWPBY.OneWPBYEntry</t>
-  </si>
-  <si>
-    <t>OneWPBYEntry</t>
-  </si>
-  <si>
-    <t>module16</t>
-  </si>
-  <si>
-    <t>纸牌老虎机</t>
-  </si>
-  <si>
-    <t>Module16.ZhiPai.Module16Entry</t>
-  </si>
-  <si>
-    <t>Module16Entry</t>
-  </si>
-  <si>
-    <t>module17</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>楚河汉界</t>
-  </si>
-  <si>
-    <t>Module17.xiangqi.xiangqi_InitProt</t>
-  </si>
-  <si>
-    <t>xiangqi_InitProt</t>
-  </si>
-  <si>
-    <t>module18</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>水浒传</t>
-  </si>
-  <si>
-    <t>Module18.SHZ.shzpanel</t>
-  </si>
-  <si>
-    <t>SHZPanel</t>
-  </si>
-  <si>
-    <t>module19</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>21点</t>
-  </si>
-  <si>
-    <t>Blackjack</t>
-  </si>
-  <si>
-    <t>Module19.Point21_2D.Point21ScenCtrlPanel</t>
-  </si>
-  <si>
-    <t>Point21ScenCtrlPanel</t>
-  </si>
-  <si>
-    <t>module20</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>百家乐</t>
-  </si>
-  <si>
-    <t>Baccarat</t>
-  </si>
-  <si>
-    <t>Module20.Game_Baccara.MainPanel</t>
-  </si>
-  <si>
-    <t>MainPanel</t>
-  </si>
-  <si>
-    <t>module22</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>水果777</t>
-  </si>
-  <si>
-    <t>Fruit slot 777</t>
-  </si>
-  <si>
-    <t>Hotfix.SG777.SG777Entry</t>
-  </si>
-  <si>
-    <t>SG777Entry</t>
-  </si>
-  <si>
     <t>ILRuntime</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>module24</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>龙珠探宝</t>
   </si>
   <si>
@@ -284,12 +299,12 @@
     <t>Module24.SerialIndiana.MainPanel</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>module25</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>草莓老虎机</t>
   </si>
   <si>
@@ -299,12 +314,12 @@
     <t>CMLHJEntry</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>module27</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>财神到</t>
   </si>
   <si>
@@ -317,12 +332,12 @@
     <t>Module27Entry</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>module28</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>福临门</t>
   </si>
   <si>
@@ -332,12 +347,12 @@
     <t>Hotfix.Fulinmen.UIEntry</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>module32</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>点球大战</t>
   </si>
   <si>
@@ -347,12 +362,12 @@
     <t>Module32.Football.MainPanel</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>module33</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>虎啸龙吟</t>
   </si>
   <si>
@@ -365,24 +380,24 @@
     <t>longhudou_InitProt</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>module38</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>战国史记</t>
   </si>
   <si>
     <t>Module38.Game.MainPanel</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>module39</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>淘金者</t>
   </si>
   <si>
@@ -395,12 +410,12 @@
     <t>TJZEntry</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>module40</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>跳高高</t>
   </si>
   <si>
@@ -410,12 +425,12 @@
     <t>Hotfix.TGG.TGGEntry</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>module41</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>金瓶梅</t>
   </si>
   <si>
@@ -428,12 +443,12 @@
     <t>JPMEntry</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>module42</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>月光宝盒</t>
   </si>
   <si>
@@ -443,12 +458,12 @@
     <t>Hotfix.YGBH.YGBHEntry</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>module43</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>百人牛牛</t>
   </si>
   <si>
@@ -461,12 +476,12 @@
     <t>Game71Panel</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>module44</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>乐高大电影</t>
   </si>
   <si>
@@ -479,12 +494,12 @@
     <t>LGDDYEntry</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>module45</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>五龙争霸</t>
   </si>
   <si>
@@ -494,12 +509,12 @@
     <t>WLZBEntry</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>module46</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>萌宠大作战</t>
   </si>
   <si>
@@ -509,12 +524,12 @@
     <t>MCDZZEntry</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>module47</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>幸运水果机</t>
   </si>
   <si>
@@ -524,12 +539,12 @@
     <t>XYSGJEntry</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>module48</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>福星高照</t>
   </si>
   <si>
@@ -539,12 +554,12 @@
     <t>FXGZEntry</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>module49</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>武士斩杀</t>
   </si>
   <si>
@@ -557,12 +572,12 @@
     <t>WSZSEntry</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>module50</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>上海滩</t>
   </si>
   <si>
@@ -572,12 +587,12 @@
     <t>SHTEntry</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>module51</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>水果小玛丽</t>
   </si>
   <si>
@@ -590,12 +605,12 @@
     <t>SGXMLEntry</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>module52</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>十二生肖</t>
   </si>
   <si>
@@ -605,12 +620,12 @@
     <t>SESXEntry</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>module53</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>街机赛马</t>
   </si>
   <si>
@@ -620,12 +635,12 @@
     <t>JJPMEntry</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>module54</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>埃及大冒险</t>
   </si>
   <si>
@@ -638,12 +653,12 @@
     <t>AJDMXEntry</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>module55</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>通比牛牛</t>
   </si>
   <si>
@@ -656,12 +671,12 @@
     <t>Module55Panel</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>module56</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>金鼠迎春</t>
   </si>
   <si>
@@ -671,12 +686,12 @@
     <t>JSYCEntry</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>module57</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>冰球突破</t>
   </si>
   <si>
@@ -692,12 +707,12 @@
     <t>BQTPEntry</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>module58</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>金猪送福</t>
   </si>
   <si>
@@ -710,12 +725,12 @@
     <t>JZSFEntry</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>module59</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>竹子熊猫</t>
   </si>
   <si>
@@ -728,12 +743,12 @@
     <t>XMZZEntry</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>module60</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>街头劲舞</t>
   </si>
   <si>
@@ -746,12 +761,12 @@
     <t>JWEntry</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>module61</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>偷窥</t>
   </si>
   <si>
@@ -767,33 +782,33 @@
     <t>TouKuiEntry</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>module62</t>
+  </si>
+  <si>
+    <t>龙腾捕鱼</t>
+  </si>
+  <si>
+    <t>3D Fishing</t>
+  </si>
+  <si>
+    <t>Hotfix.LTBY.LTBYEntry</t>
+  </si>
+  <si>
+    <t>LTBYEntry</t>
+  </si>
+  <si>
     <t>module62,prefab</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>module62</t>
-  </si>
-  <si>
-    <t>龙腾捕鱼</t>
-  </si>
-  <si>
-    <t>3D Fishing</t>
-  </si>
-  <si>
-    <t>Hotfix.LTBY.LTBYEntry</t>
-  </si>
-  <si>
-    <t>LTBYEntry</t>
+    <t>41</t>
   </si>
   <si>
     <t>module63</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>麻将胡了</t>
   </si>
   <si>
@@ -806,18 +821,21 @@
     <t>Hotfix.MJHL.MJHLEntry</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>module65</t>
+  </si>
+  <si>
+    <t>Crash</t>
+  </si>
+  <si>
+    <t>Hotfix.CrashRocket.UIEntry</t>
+  </si>
+  <si>
     <t>module65,crashconfig,crashaudio</t>
   </si>
   <si>
-    <t>module65</t>
-  </si>
-  <si>
-    <t>Crash</t>
-  </si>
-  <si>
-    <t>Hotfix.CrashRocket.UIEntry</t>
-  </si>
-  <si>
     <t>表头</t>
   </si>
   <si>
@@ -1441,9 +1459,6 @@
   </si>
   <si>
     <t>Crash小飞机</t>
-  </si>
-  <si>
-    <t>41</t>
   </si>
 </sst>
 </file>
@@ -2486,12 +2501,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M43" sqref="M43:M44"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2603,162 +2618,147 @@
         <v>17</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:15">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>39</v>
@@ -2766,264 +2766,226 @@
       <c r="I6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="L6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="N8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1">
-        <v>19</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="F10" s="1">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="F11" s="1">
-        <v>22</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="F12" s="1">
-        <v>8</v>
-      </c>
-      <c r="G12" s="1">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="4" t="s">
         <v>39</v>
       </c>
@@ -3031,42 +2993,42 @@
         <v>40</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="O12" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F13" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>39</v>
@@ -3074,44 +3036,38 @@
       <c r="I13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" s="1" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="1">
-        <v>27</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="4" t="s">
         <v>39</v>
       </c>
@@ -3119,74 +3075,68 @@
         <v>40</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="F15" s="1">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="N15" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>107</v>
@@ -3195,11 +3145,9 @@
         <v>108</v>
       </c>
       <c r="F16" s="1">
-        <v>32</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="4" t="s">
         <v>39</v>
       </c>
@@ -3207,30 +3155,28 @@
         <v>40</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>112</v>
@@ -3239,51 +3185,45 @@
         <v>113</v>
       </c>
       <c r="F17" s="1">
-        <v>33</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F18" s="1">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="4" t="s">
@@ -3298,13 +3238,13 @@
         <v>119</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -3312,56 +3252,52 @@
         <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F19" s="1">
-        <v>39</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>38</v>
+      </c>
       <c r="H19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="N19" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="F20" s="1">
-        <v>40</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>39</v>
+      </c>
       <c r="H20" s="4" t="s">
         <v>39</v>
       </c>
@@ -3369,24 +3305,24 @@
         <v>40</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>133</v>
@@ -3395,72 +3331,65 @@
         <v>134</v>
       </c>
       <c r="F21" s="1">
-        <v>41</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>40</v>
+      </c>
       <c r="H21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="N21" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="F22" s="1">
-        <v>42</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>41</v>
+      </c>
       <c r="H22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="L22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>144</v>
@@ -3469,93 +3398,81 @@
         <v>145</v>
       </c>
       <c r="F23" s="1">
-        <v>43</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>42</v>
+      </c>
       <c r="H23" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="N23" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="F24" s="1">
-        <v>44</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>43</v>
+      </c>
       <c r="H24" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="N24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>156</v>
       </c>
       <c r="F25" s="1">
-        <v>45</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>44</v>
+      </c>
       <c r="H25" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
         <v>157</v>
       </c>
@@ -3563,18 +3480,18 @@
         <v>158</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>161</v>
@@ -3583,17 +3500,14 @@
         <v>161</v>
       </c>
       <c r="F26" s="1">
-        <v>46</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>45</v>
+      </c>
       <c r="H26" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
         <v>162</v>
       </c>
@@ -3601,18 +3515,18 @@
         <v>163</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>166</v>
@@ -3621,17 +3535,14 @@
         <v>166</v>
       </c>
       <c r="F27" s="1">
-        <v>47</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>46</v>
+      </c>
       <c r="H27" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
         <v>167</v>
       </c>
@@ -3639,18 +3550,18 @@
         <v>168</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>171</v>
@@ -3659,17 +3570,14 @@
         <v>171</v>
       </c>
       <c r="F28" s="1">
-        <v>48</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>47</v>
+      </c>
       <c r="H28" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
         <v>172</v>
       </c>
@@ -3677,75 +3585,69 @@
         <v>173</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>176</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F29" s="1">
-        <v>49</v>
-      </c>
-      <c r="G29" s="1"/>
+        <v>48</v>
+      </c>
       <c r="H29" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="N29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>182</v>
       </c>
       <c r="F30" s="1">
-        <v>50</v>
-      </c>
-      <c r="G30" s="1"/>
+        <v>49</v>
+      </c>
       <c r="H30" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
         <v>183</v>
       </c>
@@ -3753,30 +3655,27 @@
         <v>184</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F31" s="1">
-        <v>21</v>
-      </c>
-      <c r="G31" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>39</v>
@@ -3784,46 +3683,44 @@
       <c r="I31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="N31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>193</v>
       </c>
       <c r="F32" s="1">
-        <v>52</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="G32" s="1">
+        <v>51</v>
+      </c>
       <c r="H32" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
         <v>194</v>
       </c>
@@ -3831,18 +3728,18 @@
         <v>195</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>198</v>
@@ -3851,17 +3748,14 @@
         <v>198</v>
       </c>
       <c r="F33" s="1">
-        <v>53</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>52</v>
+      </c>
       <c r="H33" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
         <v>199</v>
       </c>
@@ -3869,113 +3763,104 @@
         <v>200</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>203</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F34" s="1">
-        <v>54</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>53</v>
+      </c>
       <c r="H34" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="N34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F35" s="1">
-        <v>55</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>54</v>
+      </c>
       <c r="H35" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="N35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>215</v>
       </c>
       <c r="F36" s="1">
-        <v>56</v>
-      </c>
-      <c r="G36" s="1"/>
+        <v>55</v>
+      </c>
       <c r="H36" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
         <v>216</v>
       </c>
@@ -3983,185 +3868,171 @@
         <v>217</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F37" s="1">
-        <v>57</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>56</v>
+      </c>
       <c r="H37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="L37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="N37" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="2:15">
       <c r="B38" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="F38" s="1">
-        <v>58</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>57</v>
+      </c>
       <c r="H38" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="L38" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="N38" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="F39" s="1">
-        <v>59</v>
-      </c>
-      <c r="G39" s="1"/>
+        <v>58</v>
+      </c>
       <c r="H39" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="N39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>239</v>
       </c>
       <c r="F40" s="1">
-        <v>60</v>
-      </c>
-      <c r="G40" s="1"/>
+        <v>59</v>
+      </c>
       <c r="H40" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="N40" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F41" s="1">
-        <v>61</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>60</v>
+      </c>
       <c r="H41" s="4" t="s">
         <v>39</v>
       </c>
@@ -4169,41 +4040,37 @@
         <v>40</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="N41" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="F42" s="1">
-        <v>62</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>61</v>
+      </c>
       <c r="H42" s="4" t="s">
         <v>39</v>
       </c>
@@ -4211,87 +4078,121 @@
         <v>40</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="M42" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="F43" s="1">
-        <v>63</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>62</v>
+      </c>
       <c r="H43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J43" s="1" t="s">
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="44" spans="2:14">
-      <c r="B44" s="1">
-        <v>41</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>265</v>
       </c>
       <c r="F44" s="1">
-        <v>65</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>63</v>
+      </c>
       <c r="H44" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I44" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F45" s="1">
+        <v>65</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1" t="s">
-        <v>83</v>
+      <c r="J45" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4318,60 +4219,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4379,39 +4280,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4419,77 +4320,77 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B17" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B22" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B23" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
       <c r="A24" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E24" s="1">
         <v>65</v>
@@ -4501,27 +4402,27 @@
         <v>40</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:14">
       <c r="A25" s="4" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E25" s="1">
         <v>65</v>
@@ -4533,13 +4434,13 @@
         <v>40</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitClient\game_MagicWealth\ClientConfig\LubanConfig\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -71,9 +76,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>(list#sep=;),string</t>
-  </si>
-  <si>
     <t>(list#sep=,),string</t>
   </si>
   <si>
@@ -1459,19 +1461,17 @@
   </si>
   <si>
     <t>Crash小飞机</t>
+  </si>
+  <si>
+    <t>(list#sep=,),string</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1508,150 +1508,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1670,182 +1546,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1877,251 +1579,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2144,71 +1610,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2495,18 +1919,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2597,7 +2020,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>18</v>
+        <v>311</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>17</v>
@@ -2618,411 +2041,390 @@
         <v>17</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1">
+      <c r="A3" s="6" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="3" s="5" customFormat="1" spans="1:15">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
       </c>
-      <c r="G5" s="1"/>
       <c r="H5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+        <v>39</v>
+      </c>
       <c r="L5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1">
         <v>13</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1">
         <v>16</v>
       </c>
-      <c r="G7" s="1"/>
       <c r="H7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+        <v>39</v>
+      </c>
       <c r="L7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1">
         <v>17</v>
       </c>
-      <c r="G8" s="1"/>
       <c r="H8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+        <v>39</v>
+      </c>
       <c r="L8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1">
         <v>18</v>
       </c>
-      <c r="G9" s="1"/>
       <c r="H9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+        <v>39</v>
+      </c>
       <c r="L9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F10" s="1">
         <v>19</v>
       </c>
-      <c r="G10" s="1"/>
       <c r="H10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+        <v>39</v>
+      </c>
       <c r="L10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F11" s="1">
         <v>20</v>
       </c>
-      <c r="G11" s="1"/>
       <c r="H11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+        <v>39</v>
+      </c>
       <c r="L11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="F12" s="1">
         <v>22</v>
       </c>
-      <c r="G12" s="1"/>
       <c r="H12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F13" s="1">
         <v>8</v>
@@ -3031,683 +2433,669 @@
         <v>24</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+        <v>39</v>
+      </c>
       <c r="L13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="1">
         <v>25</v>
       </c>
-      <c r="G14" s="1"/>
       <c r="H14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="F15" s="1">
         <v>27</v>
       </c>
-      <c r="G15" s="1"/>
       <c r="H15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+        <v>39</v>
+      </c>
       <c r="L15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="F16" s="1">
         <v>28</v>
       </c>
-      <c r="G16" s="1"/>
       <c r="H16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K16" s="1"/>
+        <v>108</v>
+      </c>
       <c r="L16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="O16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F17" s="1">
         <v>32</v>
       </c>
-      <c r="G17" s="1"/>
       <c r="H17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+        <v>39</v>
+      </c>
       <c r="L17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="F18" s="1">
         <v>33</v>
       </c>
-      <c r="G18" s="1"/>
       <c r="H18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+        <v>39</v>
+      </c>
       <c r="L18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="1">
+        <v>38</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="1">
-        <v>38</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="M19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1">
+        <v>39</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="1">
-        <v>39</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="N20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="F21" s="1">
         <v>40</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="F22" s="1">
         <v>41</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="N22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="F23" s="1">
         <v>42</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="F24" s="1">
         <v>43</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="N24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="F25" s="1">
         <v>44</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="N25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F26" s="1">
         <v>45</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="N26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F27" s="1">
         <v>46</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="N27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F28" s="1">
         <v>47</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="N28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F29" s="1">
         <v>48</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="N29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="F30" s="1">
         <v>49</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="N30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F31" s="1">
         <v>50</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="N31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="F32" s="1">
         <v>21</v>
@@ -3716,495 +3104,494 @@
         <v>51</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L32" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="N32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F33" s="1">
         <v>52</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L33" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="N33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F34" s="1">
         <v>53</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="N34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="F35" s="1">
         <v>54</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L35" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="N35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="F36" s="1">
         <v>55</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L36" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="N36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F37" s="1">
         <v>56</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L37" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="N37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="2:15">
       <c r="B38" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="F38" s="1">
         <v>57</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="N38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="F39" s="1">
         <v>58</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L39" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="N39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="F40" s="1">
         <v>59</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L40" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="N40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F41" s="1">
         <v>60</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="N41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="F42" s="1">
         <v>61</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J42" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="N42" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="F43" s="1">
         <v>62</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J43" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="F44" s="1">
         <v>63</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I44" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="N44" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F45" s="1">
         <v>65</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J45" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>272</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4217,102 +3604,102 @@
     <col min="2" max="2" width="138.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" t="s">
         <v>281</v>
-      </c>
-      <c r="B7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" t="s">
         <v>283</v>
-      </c>
-      <c r="B8" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" t="s">
         <v>292</v>
-      </c>
-      <c r="B14" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" t="s">
         <v>294</v>
-      </c>
-      <c r="B15" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4320,132 +3707,132 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>297</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>299</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>301</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>303</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>305</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>307</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>309</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1">
+      <c r="A24" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:14">
-      <c r="A24" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="E24" s="1">
         <v>65</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1">
+      <c r="A25" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:14">
-      <c r="A25" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="E25" s="1">
         <v>65</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="318">
   <si>
     <t>##var</t>
   </si>
@@ -1464,6 +1464,56 @@
   </si>
   <si>
     <t>(list#sep=,),string</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotfix.WSZS.UIEntry</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILRuntime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILRuntime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILRuntime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Hotfix.CaiShengDao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.UIEntry</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Hotfix.JZSF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.UIEntry</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1471,7 +1521,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1523,6 +1573,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1591,7 +1649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1617,6 +1675,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1927,9 +1988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2514,14 +2575,17 @@
       <c r="I15" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="J15" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="L15" s="1" t="s">
         <v>102</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>42</v>
+      <c r="N15" s="9" t="s">
+        <v>315</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>99</v>
@@ -3036,14 +3100,17 @@
       <c r="I30" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="J30" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="L30" s="1" t="s">
         <v>182</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>42</v>
+      <c r="N30" s="9" t="s">
+        <v>313</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>179</v>
@@ -3357,14 +3424,17 @@
       <c r="I39" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="J39" s="9" t="s">
+        <v>317</v>
+      </c>
       <c r="L39" s="1" t="s">
         <v>233</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>42</v>
+      <c r="N39" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>230</v>
@@ -3436,8 +3506,8 @@
       <c r="M41" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>87</v>
+      <c r="N41" s="9" t="s">
+        <v>313</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>242</v>
@@ -3586,7 +3656,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitClient\game_MagicWealth\ClientConfig\LubanConfig\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="315">
   <si>
     <t>##var</t>
   </si>
@@ -163,12 +158,18 @@
     <t>Deep Sea Fishing</t>
   </si>
   <si>
+    <t>Hotfix.WPBY.WPBYEntry</t>
+  </si>
+  <si>
     <t>Module06.OneWPBY.OneWPBYEntry</t>
   </si>
   <si>
     <t>OneWPBYEntry</t>
   </si>
   <si>
+    <t>ILRuntime</t>
+  </si>
+  <si>
     <t>module13</t>
   </si>
   <si>
@@ -283,9 +284,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>ILRuntime</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -328,6 +326,28 @@
     <t>Fartune Gods</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hotfix.CaiShengDao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.UIEntry</t>
+    </r>
+  </si>
+  <si>
     <t>Module27.CaiShenDao.Module27Entry</t>
   </si>
   <si>
@@ -568,6 +588,9 @@
     <t>Samurai</t>
   </si>
   <si>
+    <t>Hotfix.WSZS.UIEntry</t>
+  </si>
+  <si>
     <t>Module49.wszs.WSZSEntry</t>
   </si>
   <si>
@@ -721,6 +744,28 @@
     <t>Golden piggy</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hotfix.JZSF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.UIEntry</t>
+    </r>
+  </si>
+  <si>
     <t>Module58.JZSF.JZSFEntry</t>
   </si>
   <si>
@@ -1461,67 +1506,19 @@
   </si>
   <si>
     <t>Crash小飞机</t>
-  </si>
-  <si>
-    <t>(list#sep=,),string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotfix.WSZS.UIEntry</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ILRuntime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ILRuntime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ILRuntime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Hotfix.CaiShengDao</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.UIEntry</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Hotfix.JZSF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.UIEntry</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1558,20 +1555,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1580,12 +1564,134 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1604,8 +1710,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1637,15 +1917,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1668,32 +2184,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1980,17 +2538,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2081,7 +2640,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>311</v>
+        <v>18</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>17</v>
@@ -2105,7 +2664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="5" customFormat="1">
+    <row r="3" s="5" customFormat="1" spans="1:15">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2152,7 +2711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="2:15">
       <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
@@ -2188,7 +2747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="2:15">
       <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
@@ -2210,31 +2769,34 @@
       <c r="I5" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="2:15">
       <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1">
         <v>13</v>
@@ -2246,30 +2808,30 @@
         <v>39</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1">
         <v>16</v>
@@ -2281,30 +2843,30 @@
         <v>39</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1">
         <v>17</v>
@@ -2316,30 +2878,30 @@
         <v>39</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1">
         <v>18</v>
@@ -2351,30 +2913,30 @@
         <v>39</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" s="1">
         <v>19</v>
@@ -2386,30 +2948,30 @@
         <v>39</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F11" s="1">
         <v>20</v>
@@ -2421,30 +2983,30 @@
         <v>39</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1">
         <v>22</v>
@@ -2456,36 +3018,36 @@
         <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F13" s="1">
         <v>8</v>
@@ -2500,30 +3062,30 @@
         <v>39</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
       <c r="B14" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="1">
         <v>25</v>
@@ -2535,36 +3097,36 @@
         <v>39</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
       <c r="B15" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F15" s="1">
         <v>27</v>
@@ -2576,33 +3138,33 @@
         <v>39</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>316</v>
+        <v>103</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>315</v>
+        <v>50</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1">
         <v>28</v>
@@ -2614,33 +3176,33 @@
         <v>39</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F17" s="1">
         <v>32</v>
@@ -2652,30 +3214,30 @@
         <v>39</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F18" s="1">
         <v>33</v>
@@ -2687,30 +3249,30 @@
         <v>39</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" s="1">
         <v>38</v>
@@ -2722,30 +3284,30 @@
         <v>39</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F20" s="1">
         <v>39</v>
@@ -2757,30 +3319,30 @@
         <v>39</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F21" s="1">
         <v>40</v>
@@ -2792,27 +3354,27 @@
         <v>39</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F22" s="1">
         <v>41</v>
@@ -2824,30 +3386,30 @@
         <v>39</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F23" s="1">
         <v>42</v>
@@ -2859,27 +3421,27 @@
         <v>39</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F24" s="1">
         <v>43</v>
@@ -2891,30 +3453,30 @@
         <v>39</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F25" s="1">
         <v>44</v>
@@ -2926,30 +3488,30 @@
         <v>39</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F26" s="1">
         <v>45</v>
@@ -2961,30 +3523,30 @@
         <v>39</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F27" s="1">
         <v>46</v>
@@ -2996,30 +3558,30 @@
         <v>39</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F28" s="1">
         <v>47</v>
@@ -3031,30 +3593,30 @@
         <v>39</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F29" s="1">
         <v>48</v>
@@ -3066,30 +3628,30 @@
         <v>39</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F30" s="1">
         <v>49</v>
@@ -3101,33 +3663,33 @@
         <v>39</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>312</v>
+        <v>184</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>313</v>
+        <v>50</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F31" s="1">
         <v>50</v>
@@ -3139,30 +3701,30 @@
         <v>39</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F32" s="1">
         <v>21</v>
@@ -3177,30 +3739,30 @@
         <v>39</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F33" s="1">
         <v>52</v>
@@ -3212,30 +3774,30 @@
         <v>39</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F34" s="1">
         <v>53</v>
@@ -3247,30 +3809,30 @@
         <v>39</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F35" s="1">
         <v>54</v>
@@ -3282,30 +3844,30 @@
         <v>39</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F36" s="1">
         <v>55</v>
@@ -3317,30 +3879,30 @@
         <v>39</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F37" s="1">
         <v>56</v>
@@ -3352,30 +3914,30 @@
         <v>39</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="2:15">
       <c r="B38" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F38" s="1">
         <v>57</v>
@@ -3387,33 +3949,33 @@
         <v>39</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F39" s="1">
         <v>58</v>
@@ -3425,33 +3987,33 @@
         <v>39</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="L39" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F40" s="1">
         <v>59</v>
@@ -3463,30 +4025,30 @@
         <v>39</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F41" s="1">
         <v>60</v>
@@ -3498,33 +4060,33 @@
         <v>39</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F42" s="1">
         <v>61</v>
@@ -3536,36 +4098,36 @@
         <v>39</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L42" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F43" s="1">
         <v>62</v>
@@ -3577,30 +4139,30 @@
         <v>39</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F44" s="1">
         <v>63</v>
@@ -3609,30 +4171,30 @@
         <v>38</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F45" s="1">
         <v>65</v>
@@ -3644,24 +4206,25 @@
         <v>39</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3674,102 +4237,102 @@
     <col min="2" max="2" width="138.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3777,77 +4340,77 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:14">
       <c r="A24" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E24" s="1">
         <v>65</v>
@@ -3859,27 +4422,27 @@
         <v>39</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:14">
       <c r="A25" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E25" s="1">
         <v>65</v>
@@ -3891,18 +4454,18 @@
         <v>39</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitClient\game_MagicWealth\ClientConfig\LubanConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project\game_MagicWealth\ClientConfig\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="292">
   <si>
     <t>##var</t>
   </si>
@@ -130,9 +130,6 @@
     <t>开心牛牛</t>
   </si>
   <si>
-    <t>抢庄牛牛</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>万炮捕鱼</t>
   </si>
   <si>
-    <t>Deep Sea Fishing</t>
-  </si>
-  <si>
     <t>Module06.OneWPBY.OneWPBYEntry</t>
   </si>
   <si>
@@ -235,9 +229,6 @@
     <t>21点</t>
   </si>
   <si>
-    <t>Blackjack</t>
-  </si>
-  <si>
     <t>Module19.Point21_2D.Point21ScenCtrlPanel</t>
   </si>
   <si>
@@ -253,9 +244,6 @@
     <t>百家乐</t>
   </si>
   <si>
-    <t>Baccarat</t>
-  </si>
-  <si>
     <t>Module20.Game_Baccara.MainPanel</t>
   </si>
   <si>
@@ -268,12 +256,6 @@
     <t>module22</t>
   </si>
   <si>
-    <t>水果777</t>
-  </si>
-  <si>
-    <t>Fruit slot 777</t>
-  </si>
-  <si>
     <t>Hotfix.SG777.SG777Entry</t>
   </si>
   <si>
@@ -295,9 +277,6 @@
     <t>龙珠探宝</t>
   </si>
   <si>
-    <t>Dragon Legend</t>
-  </si>
-  <si>
     <t>Module24.SerialIndiana.MainPanel</t>
   </si>
   <si>
@@ -325,9 +304,6 @@
     <t>财神到</t>
   </si>
   <si>
-    <t>Fartune Gods</t>
-  </si>
-  <si>
     <t>Module27.CaiShenDao.Module27Entry</t>
   </si>
   <si>
@@ -343,9 +319,6 @@
     <t>福临门</t>
   </si>
   <si>
-    <t>Fulinmen</t>
-  </si>
-  <si>
     <t>Hotfix.Fulinmen.UIEntry</t>
   </si>
   <si>
@@ -358,9 +331,6 @@
     <t>点球大战</t>
   </si>
   <si>
-    <t>Soccer</t>
-  </si>
-  <si>
     <t>Module32.Football.MainPanel</t>
   </si>
   <si>
@@ -373,9 +343,6 @@
     <t>虎啸龙吟</t>
   </si>
   <si>
-    <t>DragonAndTiger</t>
-  </si>
-  <si>
     <t>Module33.longhudou.longhudou_InitProt</t>
   </si>
   <si>
@@ -403,9 +370,6 @@
     <t>淘金者</t>
   </si>
   <si>
-    <t>Gold Digger</t>
-  </si>
-  <si>
     <t>Hotfix.TJZ.TJZEntry</t>
   </si>
   <si>
@@ -421,9 +385,6 @@
     <t>跳高高</t>
   </si>
   <si>
-    <t>High Jump</t>
-  </si>
-  <si>
     <t>Hotfix.TGG.TGGEntry</t>
   </si>
   <si>
@@ -436,9 +397,6 @@
     <t>金瓶梅</t>
   </si>
   <si>
-    <t>Pretty Bride</t>
-  </si>
-  <si>
     <t>Module41.jpm.JPMEntry</t>
   </si>
   <si>
@@ -454,9 +412,6 @@
     <t>月光宝盒</t>
   </si>
   <si>
-    <t>Moonlight Box</t>
-  </si>
-  <si>
     <t>Hotfix.YGBH.YGBHEntry</t>
   </si>
   <si>
@@ -469,9 +424,6 @@
     <t>百人牛牛</t>
   </si>
   <si>
-    <t>TBcattle vs100</t>
-  </si>
-  <si>
     <t>Module43.Code.Game71Panel</t>
   </si>
   <si>
@@ -487,9 +439,6 @@
     <t>乐高大电影</t>
   </si>
   <si>
-    <t>Lego Movie</t>
-  </si>
-  <si>
     <t>Module44.LGDDY.LGDDYEntry</t>
   </si>
   <si>
@@ -565,9 +514,6 @@
     <t>武士斩杀</t>
   </si>
   <si>
-    <t>Samurai</t>
-  </si>
-  <si>
     <t>Module49.wszs.WSZSEntry</t>
   </si>
   <si>
@@ -598,9 +544,6 @@
     <t>水果小玛丽</t>
   </si>
   <si>
-    <t>Fruit Mary</t>
-  </si>
-  <si>
     <t>Module51.SGXML.SGXMLEntry</t>
   </si>
   <si>
@@ -646,9 +589,6 @@
     <t>埃及大冒险</t>
   </si>
   <si>
-    <t>Egypt Treasure</t>
-  </si>
-  <si>
     <t>Module54.ajdmx.AJDMXEntry</t>
   </si>
   <si>
@@ -664,9 +604,6 @@
     <t>通比牛牛</t>
   </si>
   <si>
-    <t>TBcattle</t>
-  </si>
-  <si>
     <t>Module55.niuniu.Module55Panel</t>
   </si>
   <si>
@@ -697,9 +634,6 @@
     <t>冰球突破</t>
   </si>
   <si>
-    <t>Ice Hockey</t>
-  </si>
-  <si>
     <t>Hotfix.BQTP.UIEntry</t>
   </si>
   <si>
@@ -718,9 +652,6 @@
     <t>金猪送福</t>
   </si>
   <si>
-    <t>Golden piggy</t>
-  </si>
-  <si>
     <t>Module58.JZSF.JZSFEntry</t>
   </si>
   <si>
@@ -736,9 +667,6 @@
     <t>竹子熊猫</t>
   </si>
   <si>
-    <t>Fortune Panda</t>
-  </si>
-  <si>
     <t>Module59.XMZZ.XMZZEntry</t>
   </si>
   <si>
@@ -772,9 +700,6 @@
     <t>偷窥</t>
   </si>
   <si>
-    <t>Peeking</t>
-  </si>
-  <si>
     <t>Hotfix.TouKui.TouKuiEntry</t>
   </si>
   <si>
@@ -793,9 +718,6 @@
     <t>龙腾捕鱼</t>
   </si>
   <si>
-    <t>3D Fishing</t>
-  </si>
-  <si>
     <t>Hotfix.LTBY.LTBYEntry</t>
   </si>
   <si>
@@ -812,9 +734,6 @@
   </si>
   <si>
     <t>麻将胡了</t>
-  </si>
-  <si>
-    <t>Mahjong ways</t>
   </si>
   <si>
     <t>Portrait</t>
@@ -1514,6 +1433,10 @@
       </rPr>
       <t>.UIEntry</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果777</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1988,9 +1911,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2081,7 +2004,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>17</v>
@@ -2162,27 +2085,27 @@
       <c r="D4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>207028</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>34</v>
@@ -2190,302 +2113,302 @@
     </row>
     <row r="5" spans="1:15">
       <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>46</v>
+      <c r="E5" s="1">
+        <v>207029</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="E6" s="1">
+        <v>207030</v>
       </c>
       <c r="F6" s="1">
         <v>13</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>55</v>
+      <c r="E7" s="1">
+        <v>207031</v>
       </c>
       <c r="F7" s="1">
         <v>16</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>60</v>
+      <c r="E8" s="1">
+        <v>207032</v>
       </c>
       <c r="F8" s="1">
         <v>17</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>65</v>
+      <c r="E9" s="1">
+        <v>207033</v>
       </c>
       <c r="F9" s="1">
         <v>18</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>71</v>
+      <c r="E10" s="1">
+        <v>207034</v>
       </c>
       <c r="F10" s="1">
         <v>19</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="E11" s="1">
+        <v>207035</v>
       </c>
       <c r="F11" s="1">
         <v>20</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" s="1">
+        <v>207015</v>
       </c>
       <c r="F12" s="1">
         <v>22</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
+      </c>
+      <c r="E13" s="1">
+        <v>207016</v>
       </c>
       <c r="F13" s="1">
         <v>8</v>
@@ -2494,675 +2417,675 @@
         <v>24</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
+      </c>
+      <c r="E14" s="1">
+        <v>207031</v>
       </c>
       <c r="F14" s="1">
         <v>25</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="E15" s="1">
+        <v>207011</v>
       </c>
       <c r="F15" s="1">
         <v>27</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="E16" s="1">
+        <v>207036</v>
       </c>
       <c r="F16" s="1">
         <v>28</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
+      </c>
+      <c r="E17" s="1">
+        <v>207037</v>
       </c>
       <c r="F17" s="1">
         <v>32</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
+      </c>
+      <c r="E18" s="1">
+        <v>207038</v>
       </c>
       <c r="F18" s="1">
         <v>33</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
+      </c>
+      <c r="E19" s="1">
+        <v>207039</v>
       </c>
       <c r="F19" s="1">
         <v>38</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
+      </c>
+      <c r="E20" s="1">
+        <v>207014</v>
       </c>
       <c r="F20" s="1">
         <v>39</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
+      </c>
+      <c r="E21" s="1">
+        <v>207002</v>
       </c>
       <c r="F21" s="1">
         <v>40</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="4" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
+      </c>
+      <c r="E22" s="1">
+        <v>207010</v>
       </c>
       <c r="F22" s="1">
         <v>41</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="4" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
+      </c>
+      <c r="E23" s="1">
+        <v>207008</v>
       </c>
       <c r="F23" s="1">
         <v>42</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="4" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
+      </c>
+      <c r="E24" s="1">
+        <v>207040</v>
       </c>
       <c r="F24" s="1">
         <v>43</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
+      </c>
+      <c r="E25" s="1">
+        <v>207009</v>
       </c>
       <c r="F25" s="1">
         <v>44</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="4" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
+      </c>
+      <c r="E26" s="1">
+        <v>207041</v>
       </c>
       <c r="F26" s="1">
         <v>45</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="4" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
+      </c>
+      <c r="E27" s="1">
+        <v>207042</v>
       </c>
       <c r="F27" s="1">
         <v>46</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="4" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>170</v>
+        <v>153</v>
+      </c>
+      <c r="E28" s="1">
+        <v>207043</v>
       </c>
       <c r="F28" s="1">
         <v>47</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="4" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>175</v>
+        <v>158</v>
+      </c>
+      <c r="E29" s="1">
+        <v>207044</v>
       </c>
       <c r="F29" s="1">
         <v>48</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="4" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
+      </c>
+      <c r="E30" s="1">
+        <v>207005</v>
       </c>
       <c r="F30" s="1">
         <v>49</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="4" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
+      </c>
+      <c r="E31" s="1">
+        <v>207045</v>
       </c>
       <c r="F31" s="1">
         <v>50</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="4" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
+      </c>
+      <c r="E32" s="1">
+        <v>207004</v>
       </c>
       <c r="F32" s="1">
         <v>21</v>
@@ -3171,486 +3094,486 @@
         <v>51</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="4" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
+      </c>
+      <c r="E33" s="1">
+        <v>207046</v>
       </c>
       <c r="F33" s="1">
         <v>52</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="4" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>202</v>
+        <v>183</v>
+      </c>
+      <c r="E34" s="1">
+        <v>207047</v>
       </c>
       <c r="F34" s="1">
         <v>53</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="4" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>208</v>
+        <v>188</v>
+      </c>
+      <c r="E35" s="1">
+        <v>207003</v>
       </c>
       <c r="F35" s="1">
         <v>54</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="4" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>214</v>
+        <v>193</v>
+      </c>
+      <c r="E36" s="1">
+        <v>207048</v>
       </c>
       <c r="F36" s="1">
         <v>55</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="4" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
+      </c>
+      <c r="E37" s="1">
+        <v>207049</v>
       </c>
       <c r="F37" s="1">
         <v>56</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="2:15">
       <c r="B38" s="4" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>225</v>
+        <v>203</v>
+      </c>
+      <c r="E38" s="1">
+        <v>207001</v>
       </c>
       <c r="F38" s="1">
         <v>57</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="4" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>232</v>
+        <v>209</v>
+      </c>
+      <c r="E39" s="1">
+        <v>207017</v>
       </c>
       <c r="F39" s="1">
         <v>58</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="4" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>238</v>
+        <v>214</v>
+      </c>
+      <c r="E40" s="1">
+        <v>207007</v>
       </c>
       <c r="F40" s="1">
         <v>59</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="4" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
+      </c>
+      <c r="E41" s="1">
+        <v>207050</v>
       </c>
       <c r="F41" s="1">
         <v>60</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="4" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>250</v>
+        <v>225</v>
+      </c>
+      <c r="E42" s="1">
+        <v>207027</v>
       </c>
       <c r="F42" s="1">
         <v>61</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="4" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>257</v>
+        <v>231</v>
+      </c>
+      <c r="E43" s="1">
+        <v>207019</v>
       </c>
       <c r="F43" s="1">
         <v>62</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="4" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>264</v>
+        <v>237</v>
+      </c>
+      <c r="E44" s="1">
+        <v>207018</v>
       </c>
       <c r="F44" s="1">
         <v>63</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="4" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>269</v>
+        <v>242</v>
+      </c>
+      <c r="E45" s="1">
+        <v>207020</v>
       </c>
       <c r="F45" s="1">
         <v>65</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3676,60 +3599,60 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3737,39 +3660,39 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3777,127 +3700,127 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="B18" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B20" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B21" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="B22" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="B23" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E24" s="1">
         <v>65</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1">
       <c r="A25" s="4" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E25" s="1">
         <v>65</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project\game_MagicWealth\ClientConfig\LubanConfig\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="24225" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="292">
   <si>
     <t>##var</t>
   </si>
@@ -256,6 +251,9 @@
     <t>module22</t>
   </si>
   <si>
+    <t>水果777</t>
+  </si>
+  <si>
     <t>Hotfix.SG777.SG777Entry</t>
   </si>
   <si>
@@ -304,6 +302,28 @@
     <t>财神到</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hotfix.CaiShengDao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.UIEntry</t>
+    </r>
+  </si>
+  <si>
     <t>Module27.CaiShenDao.Module27Entry</t>
   </si>
   <si>
@@ -514,6 +534,9 @@
     <t>武士斩杀</t>
   </si>
   <si>
+    <t>Hotfix.WSZS.UIEntry</t>
+  </si>
+  <si>
     <t>Module49.wszs.WSZSEntry</t>
   </si>
   <si>
@@ -652,6 +675,28 @@
     <t>金猪送福</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hotfix.JZSF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.UIEntry</t>
+    </r>
+  </si>
+  <si>
     <t>Module58.JZSF.JZSFEntry</t>
   </si>
   <si>
@@ -757,6 +802,18 @@
     <t>module65,crashconfig,crashaudio</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>module66</t>
+  </si>
+  <si>
+    <t>德州扑克</t>
+  </si>
+  <si>
+    <t>Hotfix.DZNZ_Model.DZNZ_Enter</t>
+  </si>
+  <si>
     <t>表头</t>
   </si>
   <si>
@@ -1380,71 +1437,19 @@
   </si>
   <si>
     <t>Crash小飞机</t>
-  </si>
-  <si>
-    <t>(list#sep=,),string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotfix.WSZS.UIEntry</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ILRuntime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ILRuntime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ILRuntime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Hotfix.CaiShengDao</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.UIEntry</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Hotfix.JZSF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.UIEntry</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果777</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1481,20 +1486,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1503,12 +1495,134 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1527,8 +1641,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1560,15 +1848,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1591,32 +2115,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1903,17 +2469,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2004,7 +2571,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>284</v>
+        <v>18</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>17</v>
@@ -2028,7 +2595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="5" customFormat="1">
+    <row r="3" s="5" customFormat="1" spans="1:15">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2075,7 +2642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="2:15">
       <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
@@ -2111,7 +2678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="2:15">
       <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
@@ -2146,7 +2713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="2:15">
       <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
@@ -2181,7 +2748,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="2:15">
       <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
@@ -2216,7 +2783,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="2:15">
       <c r="B8" s="4" t="s">
         <v>56</v>
       </c>
@@ -2251,7 +2818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="2:15">
       <c r="B9" s="4" t="s">
         <v>61</v>
       </c>
@@ -2286,7 +2853,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="2:15">
       <c r="B10" s="4" t="s">
         <v>66</v>
       </c>
@@ -2321,7 +2888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="2:15">
       <c r="B11" s="4" t="s">
         <v>71</v>
       </c>
@@ -2356,7 +2923,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="2:15">
       <c r="B12" s="4" t="s">
         <v>76</v>
       </c>
@@ -2364,7 +2931,7 @@
         <v>77</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1">
         <v>207015</v>
@@ -2379,33 +2946,33 @@
         <v>38</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" s="1">
         <v>207016</v>
@@ -2423,7 +2990,7 @@
         <v>38</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>75</v>
@@ -2432,18 +2999,18 @@
         <v>41</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
       <c r="B14" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1">
         <v>207031</v>
@@ -2458,33 +3025,33 @@
         <v>38</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
       <c r="B15" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1">
         <v>207011</v>
@@ -2499,30 +3066,30 @@
         <v>38</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>289</v>
+        <v>95</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1">
         <v>207036</v>
@@ -2537,30 +3104,30 @@
         <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E17" s="1">
         <v>207037</v>
@@ -2575,7 +3142,7 @@
         <v>38</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>75</v>
@@ -2584,18 +3151,18 @@
         <v>41</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E18" s="1">
         <v>207038</v>
@@ -2610,27 +3177,27 @@
         <v>38</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E19" s="1">
         <v>207039</v>
@@ -2645,7 +3212,7 @@
         <v>38</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>75</v>
@@ -2654,18 +3221,18 @@
         <v>41</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E20" s="1">
         <v>207014</v>
@@ -2680,27 +3247,27 @@
         <v>38</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E21" s="1">
         <v>207002</v>
@@ -2715,24 +3282,24 @@
         <v>38</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E22" s="1">
         <v>207010</v>
@@ -2747,27 +3314,27 @@
         <v>38</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E23" s="1">
         <v>207008</v>
@@ -2782,24 +3349,24 @@
         <v>38</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E24" s="1">
         <v>207040</v>
@@ -2814,27 +3381,27 @@
         <v>38</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E25" s="1">
         <v>207009</v>
@@ -2849,27 +3416,27 @@
         <v>38</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E26" s="1">
         <v>207041</v>
@@ -2884,27 +3451,27 @@
         <v>38</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E27" s="1">
         <v>207042</v>
@@ -2919,27 +3486,27 @@
         <v>38</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E28" s="1">
         <v>207043</v>
@@ -2954,27 +3521,27 @@
         <v>38</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E29" s="1">
         <v>207044</v>
@@ -2989,27 +3556,27 @@
         <v>38</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E30" s="1">
         <v>207005</v>
@@ -3024,30 +3591,30 @@
         <v>38</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>285</v>
+        <v>166</v>
       </c>
       <c r="L30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E31" s="1">
         <v>207045</v>
@@ -3062,27 +3629,27 @@
         <v>38</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E32" s="1">
         <v>207004</v>
@@ -3100,27 +3667,27 @@
         <v>38</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E33" s="1">
         <v>207046</v>
@@ -3135,27 +3702,27 @@
         <v>38</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E34" s="1">
         <v>207047</v>
@@ -3170,27 +3737,27 @@
         <v>38</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E35" s="1">
         <v>207003</v>
@@ -3205,27 +3772,27 @@
         <v>38</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E36" s="1">
         <v>207048</v>
@@ -3240,27 +3807,27 @@
         <v>38</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E37" s="1">
         <v>207049</v>
@@ -3275,27 +3842,27 @@
         <v>38</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="2:15">
       <c r="B38" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E38" s="1">
         <v>207001</v>
@@ -3310,30 +3877,30 @@
         <v>38</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L38" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E39" s="1">
         <v>207017</v>
@@ -3348,30 +3915,30 @@
         <v>38</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M39" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E40" s="1">
         <v>207007</v>
@@ -3386,27 +3953,27 @@
         <v>38</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="4" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E41" s="1">
         <v>207050</v>
@@ -3421,30 +3988,30 @@
         <v>38</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M41" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E42" s="1">
         <v>207027</v>
@@ -3459,33 +4026,33 @@
         <v>38</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M42" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E43" s="1">
         <v>207019</v>
@@ -3500,27 +4067,27 @@
         <v>38</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E44" s="1">
         <v>207018</v>
@@ -3532,27 +4099,27 @@
         <v>37</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E45" s="1">
         <v>207020</v>
@@ -3567,24 +4134,57 @@
         <v>38</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E46" s="1">
+        <v>207020</v>
+      </c>
+      <c r="F46" s="1">
+        <v>66</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3597,102 +4197,102 @@
     <col min="2" max="2" width="138.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3700,77 +4300,77 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B23" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:14">
       <c r="A24" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E24" s="1">
         <v>65</v>
@@ -3782,27 +4382,27 @@
         <v>38</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:14">
       <c r="A25" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E25" s="1">
         <v>65</v>
@@ -3814,18 +4414,18 @@
         <v>38</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="11940"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="293">
   <si>
     <t>##var</t>
   </si>
@@ -710,6 +710,9 @@
   </si>
   <si>
     <t>竹子熊猫</t>
+  </si>
+  <si>
+    <t>Hotfix.XMZZ.XMZZ_Entry</t>
   </si>
   <si>
     <t>Module59.XMZZ.XMZZEntry</t>
@@ -1449,7 +1452,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,13 +1483,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1954,10 +1950,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1966,7 +1962,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1975,24 +1971,27 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2002,97 +2001,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2124,7 +2120,7 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2477,10 +2473,10 @@
   <sheetPr/>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O46" sqref="O46"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3952,14 +3948,17 @@
       <c r="I40" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="J40" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="L40" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>217</v>
@@ -3967,13 +3966,13 @@
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E41" s="1">
         <v>207050</v>
@@ -3988,30 +3987,30 @@
         <v>38</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N41" s="9" t="s">
         <v>82</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E42" s="1">
         <v>207027</v>
@@ -4026,33 +4025,33 @@
         <v>38</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E43" s="1">
         <v>207019</v>
@@ -4067,27 +4066,27 @@
         <v>38</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E44" s="1">
         <v>207018</v>
@@ -4099,27 +4098,27 @@
         <v>37</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E45" s="1">
         <v>207020</v>
@@ -4134,24 +4133,24 @@
         <v>38</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E46" s="1">
         <v>207020</v>
@@ -4166,13 +4165,13 @@
         <v>38</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4199,60 +4198,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4260,39 +4259,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4300,63 +4299,63 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
@@ -4364,13 +4363,13 @@
         <v>216</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E24" s="1">
         <v>65</v>
@@ -4382,27 +4381,27 @@
         <v>38</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>82</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:14">
       <c r="A25" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E25" s="1">
         <v>65</v>
@@ -4414,13 +4413,13 @@
         <v>38</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>82</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="293">
   <si>
     <t>##var</t>
   </si>
@@ -29,6 +29,9 @@
     <t>uiName</t>
   </si>
   <si>
+    <t>##</t>
+  </si>
+  <si>
     <t>gameName</t>
   </si>
   <si>
@@ -72,9 +75,6 @@
   </si>
   <si>
     <t>(list#sep=,),string</t>
-  </si>
-  <si>
-    <t>##</t>
   </si>
   <si>
     <t>场景名</t>
@@ -2471,33 +2471,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.25" style="1" customWidth="1"/>
-    <col min="6" max="7" width="17.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="41.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="41.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2543,57 +2543,63 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" s="5" customFormat="1" spans="1:15">
+      <c r="P2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:16">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -2605,1572 +2611,1618 @@
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:16">
       <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>207028</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:16">
       <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>207029</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:16">
       <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>207030</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>13</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:16">
       <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>207031</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>16</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:16">
       <c r="B8" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>207032</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>17</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:16">
       <c r="B9" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>207033</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>18</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:16">
       <c r="B10" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>207034</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>19</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:16">
       <c r="B11" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>207035</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>20</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:16">
       <c r="B12" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>207015</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>22</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>81</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:16">
       <c r="B13" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>207016</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>8</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>24</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:16">
       <c r="B14" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>207031</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>25</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:16">
       <c r="B15" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>207011</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>27</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="O15" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:16">
       <c r="B16" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>207036</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>28</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>81</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:16">
       <c r="B17" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>207037</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>32</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:16">
       <c r="B18" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>207038</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>33</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:16">
       <c r="B19" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>207039</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>38</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:16">
       <c r="B20" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>207014</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>39</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:16">
       <c r="B21" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>207002</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>40</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:16">
       <c r="B22" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>207010</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>41</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:16">
       <c r="B23" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>207008</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>42</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:16">
       <c r="B24" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>207040</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>43</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:16">
       <c r="B25" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>207009</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>44</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:16">
       <c r="B26" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>207041</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>45</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:16">
       <c r="B27" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>207042</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>46</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:16">
       <c r="B28" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>207043</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>47</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:16">
       <c r="B29" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>207044</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>48</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:16">
       <c r="B30" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>207005</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>49</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="O30" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:16">
       <c r="B31" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>207045</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>50</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:16">
       <c r="B32" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>207004</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>21</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>51</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:16">
       <c r="B33" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>207046</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>52</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:16">
       <c r="B34" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>207047</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>53</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:16">
       <c r="B35" s="4" t="s">
         <v>189</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>207003</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>54</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:16">
       <c r="B36" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>207048</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>55</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:16">
       <c r="B37" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>207049</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>56</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="O37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="P37" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:16">
       <c r="B38" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>207001</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <v>57</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:16">
       <c r="B39" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>207017</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>58</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="K39" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="N39" s="9" t="s">
+      <c r="O39" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:16">
       <c r="B40" s="4" t="s">
         <v>216</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>207007</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>59</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:16">
       <c r="B41" s="4" t="s">
         <v>222</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>207050</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>60</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="I41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="N41" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="N41" s="9" t="s">
+      <c r="O41" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:16">
       <c r="B42" s="4" t="s">
         <v>228</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>207027</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>61</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>231</v>
       </c>
       <c r="L42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="O42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:16">
       <c r="B43" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>207019</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>62</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="O43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:16">
       <c r="B44" s="4" t="s">
         <v>240</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>207018</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>63</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="O44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="P44" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:16">
       <c r="B45" s="4" t="s">
         <v>245</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>207020</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>65</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:16">
       <c r="B46" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>207020</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>66</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="P46" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4296,7 +4348,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>277</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="313">
   <si>
     <t>##var</t>
   </si>
@@ -251,6 +251,9 @@
     <t>module22</t>
   </si>
   <si>
+    <t>603014</t>
+  </si>
+  <si>
     <t>水果777</t>
   </si>
   <si>
@@ -272,6 +275,9 @@
     <t>module24</t>
   </si>
   <si>
+    <t>603015</t>
+  </si>
+  <si>
     <t>龙珠探宝</t>
   </si>
   <si>
@@ -299,6 +305,9 @@
     <t>module27</t>
   </si>
   <si>
+    <t>603011</t>
+  </si>
+  <si>
     <t>财神到</t>
   </si>
   <si>
@@ -336,6 +345,9 @@
     <t>module28</t>
   </si>
   <si>
+    <t>603012</t>
+  </si>
+  <si>
     <t>福临门</t>
   </si>
   <si>
@@ -348,6 +360,9 @@
     <t>module32</t>
   </si>
   <si>
+    <t>603006</t>
+  </si>
+  <si>
     <t>点球大战</t>
   </si>
   <si>
@@ -387,6 +402,9 @@
     <t>module39</t>
   </si>
   <si>
+    <t>603013</t>
+  </si>
+  <si>
     <t>淘金者</t>
   </si>
   <si>
@@ -402,6 +420,9 @@
     <t>module40</t>
   </si>
   <si>
+    <t>603002</t>
+  </si>
+  <si>
     <t>跳高高</t>
   </si>
   <si>
@@ -414,6 +435,9 @@
     <t>module41</t>
   </si>
   <si>
+    <t>603010</t>
+  </si>
+  <si>
     <t>金瓶梅</t>
   </si>
   <si>
@@ -429,6 +453,9 @@
     <t>module42</t>
   </si>
   <si>
+    <t>603008</t>
+  </si>
+  <si>
     <t>月光宝盒</t>
   </si>
   <si>
@@ -456,6 +483,9 @@
     <t>module44</t>
   </si>
   <si>
+    <t>603009</t>
+  </si>
+  <si>
     <t>乐高大电影</t>
   </si>
   <si>
@@ -531,6 +561,9 @@
     <t>module49</t>
   </si>
   <si>
+    <t>603005</t>
+  </si>
+  <si>
     <t>武士斩杀</t>
   </si>
   <si>
@@ -564,6 +597,9 @@
     <t>module51</t>
   </si>
   <si>
+    <t>603004</t>
+  </si>
+  <si>
     <t>水果小玛丽</t>
   </si>
   <si>
@@ -609,6 +645,9 @@
     <t>module54</t>
   </si>
   <si>
+    <t>603003</t>
+  </si>
+  <si>
     <t>埃及大冒险</t>
   </si>
   <si>
@@ -654,6 +693,9 @@
     <t>module57</t>
   </si>
   <si>
+    <t>603001</t>
+  </si>
+  <si>
     <t>冰球突破</t>
   </si>
   <si>
@@ -672,6 +714,9 @@
     <t>module58</t>
   </si>
   <si>
+    <t>603016</t>
+  </si>
+  <si>
     <t>金猪送福</t>
   </si>
   <si>
@@ -709,6 +754,9 @@
     <t>module59</t>
   </si>
   <si>
+    <t>603007</t>
+  </si>
+  <si>
     <t>竹子熊猫</t>
   </si>
   <si>
@@ -745,6 +793,9 @@
     <t>module61</t>
   </si>
   <si>
+    <t>603020</t>
+  </si>
+  <si>
     <t>偷窥</t>
   </si>
   <si>
@@ -763,6 +814,9 @@
     <t>module62</t>
   </si>
   <si>
+    <t>603018</t>
+  </si>
+  <si>
     <t>龙腾捕鱼</t>
   </si>
   <si>
@@ -781,6 +835,9 @@
     <t>module63</t>
   </si>
   <si>
+    <t>603017</t>
+  </si>
+  <si>
     <t>麻将胡了</t>
   </si>
   <si>
@@ -794,6 +851,9 @@
   </si>
   <si>
     <t>module65</t>
+  </si>
+  <si>
+    <t>603019</t>
   </si>
   <si>
     <t>Crash</t>
@@ -2092,7 +2152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2119,6 +2179,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2474,9 +2537,9 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4:D46"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2691,7 +2754,6 @@
       <c r="C5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
@@ -2727,7 +2789,6 @@
       <c r="C6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
@@ -2763,7 +2824,6 @@
       <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>53</v>
       </c>
@@ -2799,7 +2859,6 @@
       <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>58</v>
       </c>
@@ -2835,7 +2894,6 @@
       <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>63</v>
       </c>
@@ -2871,7 +2929,6 @@
       <c r="C10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>68</v>
       </c>
@@ -2907,7 +2964,6 @@
       <c r="C11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>73</v>
       </c>
@@ -2943,9 +2999,11 @@
       <c r="C12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>78</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="F12" s="1">
         <v>207015</v>
@@ -2960,19 +3018,19 @@
         <v>38</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>77</v>
@@ -2980,14 +3038,16 @@
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1">
         <v>207016</v>
@@ -3005,7 +3065,7 @@
         <v>38</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>75</v>
@@ -3014,19 +3074,18 @@
         <v>41</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>90</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1">
         <v>207031</v>
@@ -3041,34 +3100,36 @@
         <v>38</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F15" s="1">
         <v>207011</v>
@@ -3082,32 +3143,34 @@
       <c r="J15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F16" s="1">
         <v>207036</v>
@@ -3122,31 +3185,33 @@
         <v>38</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F17" s="1">
         <v>207037</v>
@@ -3161,7 +3226,7 @@
         <v>38</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>75</v>
@@ -3170,19 +3235,18 @@
         <v>41</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>112</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F18" s="1">
         <v>207038</v>
@@ -3197,28 +3261,27 @@
         <v>38</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>117</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F19" s="1">
         <v>207039</v>
@@ -3233,7 +3296,7 @@
         <v>38</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>75</v>
@@ -3242,19 +3305,21 @@
         <v>41</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F20" s="1">
         <v>207014</v>
@@ -3269,28 +3334,30 @@
         <v>38</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F21" s="1">
         <v>207002</v>
@@ -3305,25 +3372,27 @@
         <v>38</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F22" s="1">
         <v>207010</v>
@@ -3338,28 +3407,30 @@
         <v>38</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F23" s="1">
         <v>207008</v>
@@ -3374,25 +3445,24 @@
         <v>38</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>143</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F24" s="1">
         <v>207040</v>
@@ -3407,28 +3477,30 @@
         <v>38</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F25" s="1">
         <v>207009</v>
@@ -3443,28 +3515,27 @@
         <v>38</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>154</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F26" s="1">
         <v>207041</v>
@@ -3479,28 +3550,27 @@
         <v>38</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="4" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>159</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F27" s="1">
         <v>207042</v>
@@ -3515,28 +3585,27 @@
         <v>38</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="4" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>164</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F28" s="1">
         <v>207043</v>
@@ -3551,28 +3620,27 @@
         <v>38</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="4" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>169</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F29" s="1">
         <v>207044</v>
@@ -3587,28 +3655,30 @@
         <v>38</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="4" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F30" s="1">
         <v>207005</v>
@@ -3623,31 +3693,30 @@
         <v>38</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>82</v>
+        <v>179</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="4" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>181</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F31" s="1">
         <v>207045</v>
@@ -3662,28 +3731,30 @@
         <v>38</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="4" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F32" s="1">
         <v>207004</v>
@@ -3701,28 +3772,27 @@
         <v>38</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="4" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>192</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="F33" s="1">
         <v>207046</v>
@@ -3737,28 +3807,27 @@
         <v>38</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="4" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>197</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F34" s="1">
         <v>207047</v>
@@ -3773,28 +3842,30 @@
         <v>38</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="2:16">
       <c r="B35" s="4" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="F35" s="1">
         <v>207003</v>
@@ -3809,28 +3880,27 @@
         <v>38</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="4" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>208</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="F36" s="1">
         <v>207048</v>
@@ -3845,28 +3915,27 @@
         <v>38</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="4" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>213</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F37" s="1">
         <v>207049</v>
@@ -3881,28 +3950,30 @@
         <v>38</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="4" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>219</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="F38" s="1">
         <v>207001</v>
@@ -3917,31 +3988,33 @@
         <v>38</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="4" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="F39" s="1">
         <v>207017</v>
@@ -3955,32 +4028,34 @@
       <c r="J39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K39" s="9" t="s">
-        <v>213</v>
+      <c r="K39" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>82</v>
+        <v>230</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="4" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="F40" s="1">
         <v>207007</v>
@@ -3995,31 +4070,30 @@
         <v>38</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="2:16">
       <c r="B41" s="4" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>239</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="F41" s="1">
         <v>207050</v>
@@ -4034,31 +4108,33 @@
         <v>38</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O41" s="9" t="s">
-        <v>82</v>
+        <v>243</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="2:16">
       <c r="B42" s="4" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>246</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="F42" s="1">
         <v>207027</v>
@@ -4073,34 +4149,36 @@
         <v>38</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="2:16">
       <c r="B43" s="4" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>253</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F43" s="1">
         <v>207019</v>
@@ -4115,28 +4193,30 @@
         <v>38</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="2:16">
       <c r="B44" s="4" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="E44" s="1" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="F44" s="1">
         <v>207018</v>
@@ -4148,28 +4228,30 @@
         <v>37</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="2:16">
       <c r="B45" s="4" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="F45" s="1">
         <v>207020</v>
@@ -4184,25 +4266,24 @@
         <v>38</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="4" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D46" s="1"/>
+        <v>271</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="F46" s="1">
         <v>207020</v>
@@ -4217,13 +4298,13 @@
         <v>38</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4250,60 +4331,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4311,39 +4392,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="B15" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4351,77 +4432,77 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="B18" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="B19" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B20" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="B22" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="B23" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
       <c r="A24" s="4" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="E24" s="1">
         <v>65</v>
@@ -4433,27 +4514,27 @@
         <v>38</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:14">
       <c r="A25" s="4" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="E25" s="1">
         <v>65</v>
@@ -4465,13 +4546,13 @@
         <v>38</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="314">
   <si>
     <t>##var</t>
   </si>
@@ -601,6 +601,9 @@
   </si>
   <si>
     <t>水果小玛丽</t>
+  </si>
+  <si>
+    <t>Hotfix.SGXML.UIEntry</t>
   </si>
   <si>
     <t>Module51.SGXML.SGXMLEntry</t>
@@ -1505,7 +1508,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1548,27 +1551,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1582,14 +1564,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1629,6 +1603,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1677,6 +1666,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1699,49 +1702,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1759,25 +1726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,6 +1750,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1813,7 +1774,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1837,7 +1822,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1856,6 +1853,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1906,21 +1909,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1949,6 +1937,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2007,148 +2010,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2171,13 +2174,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2189,52 +2192,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2536,10 +2539,10 @@
   <sheetPr/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="$A32:$XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3771,14 +3774,17 @@
       <c r="J32" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="K32" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="M32" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>186</v>
@@ -3786,13 +3792,13 @@
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F33" s="1">
         <v>207046</v>
@@ -3807,27 +3813,27 @@
         <v>38</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F34" s="1">
         <v>207047</v>
@@ -3842,30 +3848,30 @@
         <v>38</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="2:16">
       <c r="B35" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F35" s="1">
         <v>207003</v>
@@ -3880,27 +3886,27 @@
         <v>38</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F36" s="1">
         <v>207048</v>
@@ -3915,27 +3921,27 @@
         <v>38</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F37" s="1">
         <v>207049</v>
@@ -3950,30 +3956,30 @@
         <v>38</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F38" s="1">
         <v>207001</v>
@@ -3988,33 +3994,33 @@
         <v>38</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F39" s="1">
         <v>207017</v>
@@ -4029,33 +4035,33 @@
         <v>38</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O39" s="10" t="s">
         <v>83</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F40" s="1">
         <v>207007</v>
@@ -4070,30 +4076,30 @@
         <v>38</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="2:16">
       <c r="B41" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F41" s="1">
         <v>207050</v>
@@ -4108,33 +4114,33 @@
         <v>38</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O41" s="10" t="s">
         <v>83</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="2:16">
       <c r="B42" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F42" s="1">
         <v>207027</v>
@@ -4149,36 +4155,36 @@
         <v>38</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="2:16">
       <c r="B43" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F43" s="1">
         <v>207019</v>
@@ -4193,30 +4199,30 @@
         <v>38</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="2:16">
       <c r="B44" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F44" s="1">
         <v>207018</v>
@@ -4228,30 +4234,30 @@
         <v>37</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="2:16">
       <c r="B45" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F45" s="1">
         <v>207020</v>
@@ -4266,24 +4272,24 @@
         <v>38</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F46" s="1">
         <v>207020</v>
@@ -4298,13 +4304,13 @@
         <v>38</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4331,60 +4337,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4392,39 +4398,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4432,77 +4438,77 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
       <c r="A24" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E24" s="1">
         <v>65</v>
@@ -4514,27 +4520,27 @@
         <v>38</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>83</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:14">
       <c r="A25" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E25" s="1">
         <v>65</v>
@@ -4546,13 +4552,13 @@
         <v>38</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -2540,9 +2540,9 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="$A32:$XFD32"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4292,7 +4292,7 @@
         <v>273</v>
       </c>
       <c r="F46" s="1">
-        <v>207020</v>
+        <v>400066</v>
       </c>
       <c r="G46" s="1">
         <v>66</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -2539,10 +2539,10 @@
   <sheetPr/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3784,7 +3784,7 @@
         <v>191</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>186</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="318">
   <si>
     <t>##var</t>
   </si>
@@ -878,6 +878,18 @@
   </si>
   <si>
     <t>Hotfix.DZNZ_Model.DZNZ_Enter</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>module68</t>
+  </si>
+  <si>
+    <t>剪头石头布</t>
+  </si>
+  <si>
+    <t>Hotfix.JDSTB.JDSTB_Enter</t>
   </si>
   <si>
     <t>表头</t>
@@ -2537,12 +2549,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
+      <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4311,6 +4323,38 @@
       </c>
       <c r="P46" s="1" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="B47" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F47" s="1">
+        <v>400067</v>
+      </c>
+      <c r="G47" s="1">
+        <v>68</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4337,60 +4381,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4398,39 +4442,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4438,63 +4482,63 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B17" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B19" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B21" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B23" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
@@ -4505,7 +4549,7 @@
         <v>266</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>268</v>
@@ -4537,7 +4581,7 @@
         <v>266</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>268</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="318">
   <si>
     <t>##var</t>
   </si>
@@ -878,6 +878,18 @@
   </si>
   <si>
     <t>Hotfix.DZNZ_Model.DZNZ_Enter</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>module69</t>
+  </si>
+  <si>
+    <t>龙虎斗</t>
+  </si>
+  <si>
+    <t>Hotfix.LHD.LHD_EnterPanel</t>
   </si>
   <si>
     <t>表头</t>
@@ -2537,12 +2549,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
+      <selection pane="bottomLeft" activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4311,6 +4323,38 @@
       </c>
       <c r="P46" s="1" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="B47" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F47" s="1">
+        <v>400066</v>
+      </c>
+      <c r="G47" s="1">
+        <v>69</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4337,60 +4381,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4398,39 +4442,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4438,63 +4482,63 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B17" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B19" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B21" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B23" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
@@ -4505,7 +4549,7 @@
         <v>266</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>268</v>
@@ -4537,7 +4581,7 @@
         <v>266</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>268</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="11775"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="323">
   <si>
     <t>##var</t>
   </si>
@@ -881,6 +881,21 @@
   </si>
   <si>
     <t>44</t>
+  </si>
+  <si>
+    <t>module67</t>
+  </si>
+  <si>
+    <t>僵尸捕鱼</t>
+  </si>
+  <si>
+    <t>1,10,100,10001</t>
+  </si>
+  <si>
+    <t>Hotfix.Game.ZombieFish.ZTD</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
   <si>
     <t>module68</t>
@@ -1520,7 +1535,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1563,6 +1578,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1576,6 +1612,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1615,21 +1659,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1678,20 +1707,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1714,13 +1729,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,7 +1789,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,18 +1831,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1786,31 +1843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1834,19 +1867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1865,12 +1886,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1921,6 +1936,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1949,21 +1979,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2022,148 +2037,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2186,13 +2201,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2204,52 +2219,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2549,12 +2564,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
+      <selection pane="bottomLeft" activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4335,26 +4350,55 @@
       <c r="E47" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F47" s="1">
-        <v>400067</v>
-      </c>
       <c r="G47" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>37</v>
+        <v>278</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="B48" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F48" s="1">
+        <v>400067</v>
+      </c>
+      <c r="G48" s="1">
+        <v>68</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4381,60 +4425,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4442,39 +4486,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4482,63 +4526,63 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B17" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B18" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B19" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B22" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
@@ -4549,7 +4593,7 @@
         <v>266</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>268</v>
@@ -4581,7 +4625,7 @@
         <v>266</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>268</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="11775"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="320">
   <si>
     <t>##var</t>
   </si>
@@ -489,6 +489,9 @@
     <t>乐高大电影</t>
   </si>
   <si>
+    <t>Hotfix.LGDY.LGDY_Entry</t>
+  </si>
+  <si>
     <t>Module44.LGDDY.LGDDYEntry</t>
   </si>
   <si>
@@ -652,6 +655,9 @@
   </si>
   <si>
     <t>埃及大冒险</t>
+  </si>
+  <si>
+    <t>Hotfix.Game.AJDMX.AJDMX_Entry</t>
   </si>
   <si>
     <t>Module54.ajdmx.AJDMXEntry</t>
@@ -2552,9 +2558,9 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M46" sqref="M46"/>
+      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3529,14 +3535,17 @@
       <c r="J25" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="K25" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="M25" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>148</v>
@@ -3544,13 +3553,13 @@
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F26" s="1">
         <v>207041</v>
@@ -3565,27 +3574,27 @@
         <v>38</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F27" s="1">
         <v>207042</v>
@@ -3600,27 +3609,27 @@
         <v>38</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F28" s="1">
         <v>207043</v>
@@ -3635,27 +3644,27 @@
         <v>38</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F29" s="1">
         <v>207044</v>
@@ -3670,30 +3679,30 @@
         <v>38</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F30" s="1">
         <v>207005</v>
@@ -3708,30 +3717,30 @@
         <v>38</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O30" s="10" t="s">
         <v>83</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F31" s="1">
         <v>207045</v>
@@ -3746,30 +3755,30 @@
         <v>38</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F32" s="1">
         <v>207004</v>
@@ -3787,30 +3796,30 @@
         <v>38</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F33" s="1">
         <v>207046</v>
@@ -3825,27 +3834,27 @@
         <v>38</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F34" s="1">
         <v>207047</v>
@@ -3860,30 +3869,30 @@
         <v>38</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="2:16">
       <c r="B35" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F35" s="1">
         <v>207003</v>
@@ -3897,28 +3906,31 @@
       <c r="J35" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="K35" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="M35" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F36" s="1">
         <v>207048</v>
@@ -3933,27 +3945,27 @@
         <v>38</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F37" s="1">
         <v>207049</v>
@@ -3968,30 +3980,30 @@
         <v>38</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F38" s="1">
         <v>207001</v>
@@ -4006,33 +4018,33 @@
         <v>38</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F39" s="1">
         <v>207017</v>
@@ -4047,33 +4059,33 @@
         <v>38</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O39" s="10" t="s">
         <v>83</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F40" s="1">
         <v>207007</v>
@@ -4088,30 +4100,30 @@
         <v>38</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="2:16">
       <c r="B41" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F41" s="1">
         <v>207050</v>
@@ -4126,33 +4138,33 @@
         <v>38</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O41" s="10" t="s">
         <v>83</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="2:16">
       <c r="B42" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F42" s="1">
         <v>207027</v>
@@ -4167,36 +4179,36 @@
         <v>38</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="2:16">
       <c r="B43" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F43" s="1">
         <v>207019</v>
@@ -4211,30 +4223,30 @@
         <v>38</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="2:16">
       <c r="B44" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F44" s="1">
         <v>207018</v>
@@ -4246,30 +4258,30 @@
         <v>37</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="2:16">
       <c r="B45" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F45" s="1">
         <v>207020</v>
@@ -4284,24 +4296,24 @@
         <v>38</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F46" s="1">
         <v>400066</v>
@@ -4316,24 +4328,24 @@
         <v>38</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="2:16">
       <c r="B47" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F47" s="1">
         <v>400066</v>
@@ -4348,13 +4360,13 @@
         <v>38</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4381,60 +4393,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4442,39 +4454,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4482,77 +4494,77 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B18" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B19" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B22" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
       <c r="A24" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E24" s="1">
         <v>65</v>
@@ -4564,27 +4576,27 @@
         <v>38</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>83</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:14">
       <c r="A25" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E25" s="1">
         <v>65</v>
@@ -4596,13 +4608,13 @@
         <v>38</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -2557,10 +2557,10 @@
   <sheetPr/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3805,7 +3805,7 @@
         <v>192</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>187</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -2557,10 +2557,10 @@
   <sheetPr/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4348,7 +4348,7 @@
         <v>279</v>
       </c>
       <c r="F47" s="1">
-        <v>400066</v>
+        <v>400069</v>
       </c>
       <c r="G47" s="1">
         <v>69</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="11775"/>
+    <workbookView windowWidth="28125" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="323">
   <si>
     <t>##var</t>
   </si>
@@ -315,7 +315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -325,7 +325,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -733,7 +733,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -743,7 +743,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -898,6 +898,15 @@
     <t>Hotfix.LHD.LHD_EnterPanel</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>奥林匹斯之门</t>
+  </si>
+  <si>
+    <t>Hotfix.ZS.ZS_Enter</t>
+  </si>
+  <si>
     <t>表头</t>
   </si>
   <si>
@@ -908,7 +917,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -918,7 +927,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -927,7 +936,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -937,7 +946,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -952,7 +961,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -962,7 +971,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -977,7 +986,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -987,7 +996,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1005,7 +1014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1015,7 +1024,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1072,7 +1081,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1082,7 +1091,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1092,7 +1101,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1101,7 +1110,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1111,7 +1120,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1121,7 +1130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1130,7 +1139,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1145,7 +1154,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1155,7 +1164,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1165,7 +1174,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1174,7 +1183,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1184,7 +1193,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1194,7 +1203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1203,7 +1212,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1218,7 +1227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1228,7 +1237,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1238,7 +1247,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1247,7 +1256,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1257,7 +1266,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1267,7 +1276,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1276,7 +1285,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1291,7 +1300,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1301,7 +1310,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1311,7 +1320,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1320,7 +1329,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1330,7 +1339,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1340,7 +1349,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1349,7 +1358,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1364,7 +1373,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1373,7 +1382,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1383,7 +1392,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1398,7 +1407,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1408,7 +1417,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1418,7 +1427,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1428,7 +1437,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1438,7 +1447,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1448,7 +1457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1458,7 +1467,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1468,7 +1477,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1477,7 +1486,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1487,7 +1496,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1497,7 +1506,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1506,7 +1515,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1526,68 +1535,129 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1595,54 +1665,37 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1650,51 +1703,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1720,7 +1729,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,13 +1771,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,7 +1831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,7 +1849,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,91 +1885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1870,25 +1897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1926,6 +1935,80 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1945,81 +2028,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2028,148 +2037,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2192,13 +2201,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2209,55 +2218,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2555,29 +2564,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.25" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1238095238095" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.37142857142857" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.247619047619" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.247619047619" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="41.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.3714285714286" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.247619047619" style="1" customWidth="1"/>
+    <col min="13" max="13" width="41.5047619047619" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.3714285714286" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.8761904761905" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1238095238095" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4366,6 +4375,38 @@
         <v>83</v>
       </c>
       <c r="P47" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="B48" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F48" s="1">
+        <v>400071</v>
+      </c>
+      <c r="G48" s="1">
+        <v>71</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P48" s="1" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4385,68 +4426,68 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="138.875" customWidth="1"/>
+    <col min="1" max="1" width="16.5047619047619" customWidth="1"/>
+    <col min="2" max="2" width="138.87619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4454,39 +4495,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4494,63 +4535,63 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B17" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B23" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
@@ -4561,7 +4602,7 @@
         <v>268</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>270</v>
@@ -4593,7 +4634,7 @@
         <v>268</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>270</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="324">
   <si>
     <t>##var</t>
   </si>
@@ -899,6 +899,9 @@
   </si>
   <si>
     <t>45</t>
+  </si>
+  <si>
+    <t>module71</t>
   </si>
   <si>
     <t>奥林匹斯之门</t>
@@ -1537,10 +1540,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1578,7 +1581,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1593,8 +1603,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1609,15 +1627,38 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1631,27 +1672,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1663,38 +1688,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1702,7 +1697,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1729,19 +1732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,7 +1744,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,37 +1864,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,97 +1900,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1935,17 +1938,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1961,26 +1953,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2003,6 +1995,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2010,25 +2011,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2037,7 +2040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2055,130 +2058,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2569,7 +2572,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4383,10 +4386,10 @@
         <v>281</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F48" s="1">
         <v>400071</v>
@@ -4401,7 +4404,7 @@
         <v>38</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>83</v>
@@ -4434,60 +4437,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4495,39 +4498,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4535,63 +4538,63 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
@@ -4602,7 +4605,7 @@
         <v>268</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>270</v>
@@ -4634,7 +4637,7 @@
         <v>268</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>270</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12450"/>
+    <workbookView windowWidth="28800" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -325,7 +325,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -733,7 +733,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -743,7 +743,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -920,7 +920,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -930,7 +930,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -939,7 +939,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -949,7 +949,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -964,7 +964,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -974,7 +974,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -989,7 +989,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -999,7 +999,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1017,7 +1017,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1027,7 +1027,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1084,7 +1084,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1094,7 +1094,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1104,7 +1104,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1113,7 +1113,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1123,7 +1123,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1133,7 +1133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,7 +1142,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1157,7 +1157,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1167,7 +1167,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1177,7 +1177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1186,7 +1186,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1196,7 +1196,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1206,7 +1206,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1215,7 +1215,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1230,7 +1230,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1240,7 +1240,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1250,7 +1250,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1259,7 +1259,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1269,7 +1269,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1279,7 +1279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1288,7 +1288,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1303,7 +1303,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1313,7 +1313,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1323,7 +1323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1332,7 +1332,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1342,7 +1342,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1352,7 +1352,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1361,7 +1361,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1376,7 +1376,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1385,7 +1385,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1395,7 +1395,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,7 +1410,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1420,7 +1420,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1430,7 +1430,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1440,7 +1440,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1450,7 +1450,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1460,7 +1460,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1470,7 +1470,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1480,7 +1480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1489,7 +1489,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1499,7 +1499,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1509,7 +1509,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1518,7 +1518,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1538,45 +1538,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1584,21 +1584,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1606,14 +1592,77 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1621,84 +1670,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1706,7 +1685,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1732,7 +1732,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,7 +1780,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1756,19 +1852,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,127 +1894,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1938,17 +1938,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1962,17 +1962,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1992,24 +1986,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2021,6 +1997,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2040,148 +2040,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2204,13 +2204,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2221,55 +2221,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2569,27 +2569,27 @@
   <sheetPr/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.1238095238095" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.37142857142857" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.247619047619" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.247619047619" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.3714285714286" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.247619047619" style="1" customWidth="1"/>
-    <col min="13" max="13" width="41.5047619047619" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.3714285714286" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.8761904761905" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.1238095238095" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="41.5083333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.125" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3557,7 +3557,7 @@
         <v>153</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>148</v>
@@ -3817,7 +3817,7 @@
         <v>192</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>187</v>
@@ -3928,7 +3928,7 @@
         <v>209</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>204</v>
@@ -4429,10 +4429,10 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.5047619047619" customWidth="1"/>
-    <col min="2" max="2" width="138.87619047619" customWidth="1"/>
+    <col min="1" max="1" width="16.5083333333333" customWidth="1"/>
+    <col min="2" max="2" width="138.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12450"/>
+    <workbookView windowWidth="28800" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -325,7 +325,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -733,7 +733,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -743,7 +743,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -920,7 +920,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -930,7 +930,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -939,7 +939,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -949,7 +949,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -964,7 +964,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -974,7 +974,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -989,7 +989,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -999,7 +999,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1017,7 +1017,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1027,7 +1027,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1084,7 +1084,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1094,7 +1094,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1104,7 +1104,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1113,7 +1113,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1123,7 +1123,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1133,7 +1133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,7 +1142,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1157,7 +1157,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1167,7 +1167,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1177,7 +1177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1186,7 +1186,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1196,7 +1196,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1206,7 +1206,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1215,7 +1215,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1230,7 +1230,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1240,7 +1240,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1250,7 +1250,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1259,7 +1259,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1269,7 +1269,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1279,7 +1279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1288,7 +1288,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1303,7 +1303,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1313,7 +1313,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1323,7 +1323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1332,7 +1332,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1342,7 +1342,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1352,7 +1352,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1361,7 +1361,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1376,7 +1376,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1385,7 +1385,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1395,7 +1395,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,7 +1410,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1420,7 +1420,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1430,7 +1430,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1440,7 +1440,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1450,7 +1450,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1460,7 +1460,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1470,7 +1470,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1480,7 +1480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1489,7 +1489,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1499,7 +1499,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1509,7 +1509,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1518,7 +1518,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1538,45 +1538,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1584,21 +1584,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1606,14 +1592,77 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1621,84 +1670,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1706,7 +1685,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1732,7 +1732,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,7 +1780,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1756,19 +1852,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,127 +1894,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1938,17 +1938,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1962,17 +1962,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1992,24 +1986,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2021,6 +1997,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2040,148 +2040,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2204,13 +2204,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2221,55 +2221,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2569,27 +2569,27 @@
   <sheetPr/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.1238095238095" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.37142857142857" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.247619047619" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.247619047619" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.3714285714286" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.247619047619" style="1" customWidth="1"/>
-    <col min="13" max="13" width="41.5047619047619" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.3714285714286" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.8761904761905" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.1238095238095" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="41.5083333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.125" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3557,7 +3557,7 @@
         <v>153</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>148</v>
@@ -3817,7 +3817,7 @@
         <v>192</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>187</v>
@@ -3928,7 +3928,7 @@
         <v>209</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>204</v>
@@ -4429,10 +4429,10 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.5047619047619" customWidth="1"/>
-    <col min="2" max="2" width="138.87619047619" customWidth="1"/>
+    <col min="1" max="1" width="16.5083333333333" customWidth="1"/>
+    <col min="2" max="2" width="138.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12450"/>
+    <workbookView windowWidth="28800" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -325,7 +325,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -733,7 +733,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -743,7 +743,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -920,7 +920,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -930,7 +930,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -939,7 +939,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -949,7 +949,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -964,7 +964,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -974,7 +974,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -989,7 +989,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -999,7 +999,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1017,7 +1017,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1027,7 +1027,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1084,7 +1084,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1094,7 +1094,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1104,7 +1104,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1113,7 +1113,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1123,7 +1123,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1133,7 +1133,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,7 +1142,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1157,7 +1157,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1167,7 +1167,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1177,7 +1177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1186,7 +1186,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1196,7 +1196,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1206,7 +1206,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1215,7 +1215,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1230,7 +1230,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1240,7 +1240,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1250,7 +1250,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1259,7 +1259,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1269,7 +1269,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1279,7 +1279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1288,7 +1288,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1303,7 +1303,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1313,7 +1313,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1323,7 +1323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1332,7 +1332,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1342,7 +1342,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1352,7 +1352,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1361,7 +1361,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1376,7 +1376,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1385,7 +1385,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1395,7 +1395,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,7 +1410,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1420,7 +1420,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1430,7 +1430,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1440,7 +1440,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1450,7 +1450,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1460,7 +1460,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1470,7 +1470,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1480,7 +1480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1489,7 +1489,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1499,7 +1499,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1509,7 +1509,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1518,7 +1518,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1538,45 +1538,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1584,21 +1584,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1606,14 +1592,77 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1621,84 +1670,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1706,7 +1685,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1732,7 +1732,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,7 +1780,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1756,19 +1852,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,127 +1894,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1938,17 +1938,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1962,17 +1962,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1992,24 +1986,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2021,6 +1997,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2040,148 +2040,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2204,13 +2204,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2221,55 +2221,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2569,27 +2569,27 @@
   <sheetPr/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.1238095238095" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.37142857142857" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.247619047619" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.247619047619" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.3714285714286" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.247619047619" style="1" customWidth="1"/>
-    <col min="13" max="13" width="41.5047619047619" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.3714285714286" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.8761904761905" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.1238095238095" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="41.5083333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.125" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3557,7 +3557,7 @@
         <v>153</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>148</v>
@@ -3817,7 +3817,7 @@
         <v>192</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>187</v>
@@ -3928,7 +3928,7 @@
         <v>209</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>204</v>
@@ -4429,10 +4429,10 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.5047619047619" customWidth="1"/>
-    <col min="2" max="2" width="138.87619047619" customWidth="1"/>
+    <col min="1" max="1" width="16.5083333333333" customWidth="1"/>
+    <col min="2" max="2" width="138.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24045" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="327">
   <si>
     <t>##var</t>
   </si>
@@ -905,6 +905,18 @@
   </si>
   <si>
     <t>Hotfix.JDSTB.JDSTB_Enter</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>module70</t>
+  </si>
+  <si>
+    <t>印度红黑</t>
+  </si>
+  <si>
+    <t>Hotfix.HH.HH_EnterPanel</t>
   </si>
   <si>
     <t>表头</t>
@@ -1535,7 +1547,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1578,27 +1590,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1612,14 +1603,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1659,6 +1642,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1707,6 +1705,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1729,49 +1741,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,25 +1765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1831,6 +1789,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1843,7 +1813,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1867,7 +1861,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1886,6 +1892,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1936,21 +1948,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1979,6 +1976,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2037,148 +2049,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2201,13 +2213,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2219,52 +2231,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2564,12 +2576,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P51" sqref="P51"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4399,6 +4411,38 @@
       </c>
       <c r="P48" s="1" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16">
+      <c r="B49" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F49" s="1">
+        <v>400067</v>
+      </c>
+      <c r="G49" s="1">
+        <v>70</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4425,60 +4469,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4486,39 +4530,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4526,63 +4570,63 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B18" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B22" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B23" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
@@ -4593,7 +4637,7 @@
         <v>266</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>268</v>
@@ -4625,7 +4669,7 @@
         <v>266</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>268</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -2572,7 +2572,7 @@
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
+      <selection pane="bottomLeft" activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3557,7 +3557,7 @@
         <v>153</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>148</v>
@@ -3817,7 +3817,7 @@
         <v>192</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>187</v>
@@ -3928,7 +3928,7 @@
         <v>209</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>204</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="325">
   <si>
     <t>##var</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>金瓶梅</t>
+  </si>
+  <si>
+    <t>Hotfix.JPM.JPMEntry</t>
   </si>
   <si>
     <t>Module41.jpm.JPMEntry</t>
@@ -2570,9 +2573,9 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O42" sqref="O42"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3439,14 +3442,17 @@
       <c r="J22" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="K22" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="M22" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>132</v>
@@ -3454,16 +3460,16 @@
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F23" s="1">
         <v>207008</v>
@@ -3478,24 +3484,24 @@
         <v>38</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F24" s="1">
         <v>207040</v>
@@ -3510,30 +3516,30 @@
         <v>38</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F25" s="1">
         <v>207009</v>
@@ -3548,30 +3554,30 @@
         <v>38</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F26" s="1">
         <v>207041</v>
@@ -3586,27 +3592,27 @@
         <v>38</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F27" s="1">
         <v>207042</v>
@@ -3621,27 +3627,27 @@
         <v>38</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F28" s="1">
         <v>207043</v>
@@ -3656,27 +3662,27 @@
         <v>38</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F29" s="1">
         <v>207044</v>
@@ -3691,30 +3697,30 @@
         <v>38</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F30" s="1">
         <v>207005</v>
@@ -3729,30 +3735,30 @@
         <v>38</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O30" s="10" t="s">
         <v>83</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F31" s="1">
         <v>207045</v>
@@ -3767,30 +3773,30 @@
         <v>38</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F32" s="1">
         <v>207004</v>
@@ -3808,30 +3814,30 @@
         <v>38</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F33" s="1">
         <v>207046</v>
@@ -3846,27 +3852,27 @@
         <v>38</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F34" s="1">
         <v>207047</v>
@@ -3881,30 +3887,30 @@
         <v>38</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="2:16">
       <c r="B35" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F35" s="1">
         <v>207003</v>
@@ -3919,30 +3925,30 @@
         <v>38</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F36" s="1">
         <v>207048</v>
@@ -3957,27 +3963,27 @@
         <v>38</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F37" s="1">
         <v>207049</v>
@@ -3992,30 +3998,30 @@
         <v>38</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F38" s="1">
         <v>207001</v>
@@ -4030,33 +4036,33 @@
         <v>38</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F39" s="1">
         <v>207017</v>
@@ -4071,33 +4077,33 @@
         <v>38</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O39" s="10" t="s">
         <v>83</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F40" s="1">
         <v>207007</v>
@@ -4112,30 +4118,30 @@
         <v>38</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="2:16">
       <c r="B41" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F41" s="1">
         <v>207050</v>
@@ -4150,33 +4156,33 @@
         <v>38</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O41" s="10" t="s">
         <v>83</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="2:16">
       <c r="B42" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F42" s="1">
         <v>207027</v>
@@ -4191,36 +4197,36 @@
         <v>38</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="2:16">
       <c r="B43" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F43" s="1">
         <v>207019</v>
@@ -4235,30 +4241,30 @@
         <v>38</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="2:16">
       <c r="B44" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F44" s="1">
         <v>207018</v>
@@ -4270,30 +4276,30 @@
         <v>37</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="2:16">
       <c r="B45" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F45" s="1">
         <v>207020</v>
@@ -4308,24 +4314,24 @@
         <v>38</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F46" s="1">
         <v>400066</v>
@@ -4340,24 +4346,24 @@
         <v>38</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="2:16">
       <c r="B47" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F47" s="1">
         <v>400069</v>
@@ -4372,24 +4378,24 @@
         <v>38</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="2:16">
       <c r="B48" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F48" s="1">
         <v>400071</v>
@@ -4404,13 +4410,13 @@
         <v>38</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4437,60 +4443,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4498,39 +4504,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4538,77 +4544,77 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
       <c r="A24" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E24" s="1">
         <v>65</v>
@@ -4620,27 +4626,27 @@
         <v>38</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>83</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:14">
       <c r="A25" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E25" s="1">
         <v>65</v>
@@ -4652,13 +4658,13 @@
         <v>38</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="331">
   <si>
     <t>##var</t>
   </si>
@@ -905,6 +905,18 @@
   </si>
   <si>
     <t>45</t>
+  </si>
+  <si>
+    <t>module70</t>
+  </si>
+  <si>
+    <t>红黑</t>
+  </si>
+  <si>
+    <t>1,10,100,10001</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
   <si>
     <t>module71</t>
@@ -2588,12 +2600,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomLeft" activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4427,25 +4439,54 @@
         <v>285</v>
       </c>
       <c r="G48" s="1">
-        <v>400071</v>
+        <v>400070</v>
       </c>
       <c r="H48" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="P48" s="1" t="s">
         <v>85</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" s="1">
+        <v>400071</v>
+      </c>
+      <c r="H49" s="1">
+        <v>71</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4472,60 +4513,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4533,39 +4574,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B14" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4573,63 +4614,63 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B17" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B18" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B20" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B21" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B22" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B23" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
@@ -4640,7 +4681,7 @@
         <v>270</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>272</v>
@@ -4652,7 +4693,7 @@
         <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>273</v>
@@ -4672,7 +4713,7 @@
         <v>270</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>272</v>
@@ -4684,7 +4725,7 @@
         <v>39</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>273</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="340">
   <si>
     <t>##var</t>
   </si>
@@ -926,6 +926,33 @@
   </si>
   <si>
     <t>Hotfix.ZS.ZS_Enter</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>module72</t>
+  </si>
+  <si>
+    <t>TeenPattie</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>module73</t>
+  </si>
+  <si>
+    <t>PointRummy</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>module74</t>
+  </si>
+  <si>
+    <t>PoolRummy</t>
   </si>
   <si>
     <t>表头</t>
@@ -2600,12 +2627,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P53" sqref="P53"/>
+      <selection pane="bottomLeft" activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4489,6 +4516,102 @@
         <v>288</v>
       </c>
     </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G50" s="1">
+        <v>400072</v>
+      </c>
+      <c r="H50" s="1">
+        <v>72</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G51" s="1">
+        <v>400073</v>
+      </c>
+      <c r="H51" s="1">
+        <v>73</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G52" s="1">
+        <v>400074</v>
+      </c>
+      <c r="H52" s="1">
+        <v>74</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4513,60 +4636,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4574,39 +4697,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4614,63 +4737,63 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B18" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B20" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B23" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
@@ -4681,7 +4804,7 @@
         <v>270</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>272</v>
@@ -4693,7 +4816,7 @@
         <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>273</v>
@@ -4713,7 +4836,7 @@
         <v>270</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>272</v>
@@ -4725,7 +4848,7 @@
         <v>39</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>273</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24045" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="341">
   <si>
     <t>##var</t>
   </si>
@@ -910,10 +910,13 @@
     <t>module70</t>
   </si>
   <si>
-    <t>红黑</t>
+    <t>印度红黑</t>
   </si>
   <si>
     <t>1,10,100,10001</t>
+  </si>
+  <si>
+    <t>Hotfix.HH.HH_EnterPanel</t>
   </si>
   <si>
     <t>46</t>
@@ -1586,7 +1589,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1629,27 +1632,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1663,14 +1645,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1710,6 +1684,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1758,6 +1747,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1780,49 +1783,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1840,25 +1807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1882,6 +1831,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1894,7 +1855,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1918,7 +1903,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1937,6 +1934,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1987,21 +1990,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2030,6 +2018,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2088,148 +2091,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2255,7 +2258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2264,7 +2267,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2282,52 +2285,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2630,9 +2633,9 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q54" sqref="Q54"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4477,6 +4480,9 @@
       <c r="K48" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="L48" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="P48" s="1" t="s">
         <v>85</v>
       </c>
@@ -4486,13 +4492,13 @@
     </row>
     <row r="49" spans="2:17">
       <c r="B49" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G49" s="1">
         <v>400071</v>
@@ -4507,24 +4513,24 @@
         <v>40</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>85</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="2:17">
       <c r="B50" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G50" s="1">
         <v>400072</v>
@@ -4539,24 +4545,24 @@
         <v>40</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>85</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="2:17">
       <c r="B51" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G51" s="1">
         <v>400073</v>
@@ -4571,24 +4577,24 @@
         <v>40</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>85</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="2:17">
       <c r="B52" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G52" s="1">
         <v>400074</v>
@@ -4603,13 +4609,13 @@
         <v>40</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>85</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4636,60 +4642,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4697,39 +4703,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4737,63 +4743,63 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B23" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
@@ -4804,7 +4810,7 @@
         <v>270</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>272</v>
@@ -4816,7 +4822,7 @@
         <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>273</v>
@@ -4836,7 +4842,7 @@
         <v>270</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>272</v>
@@ -4848,7 +4854,7 @@
         <v>39</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>273</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -916,7 +916,7 @@
     <t>1,10,100,10001</t>
   </si>
   <si>
-    <t>Hotfix.HH.HH_EnterPanel</t>
+    <t>Hotfix.HH.HH_EnterPanelUI</t>
   </si>
   <si>
     <t>46</t>
@@ -2632,10 +2632,10 @@
   <sheetPr/>
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="11775"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="343">
   <si>
     <t>##var</t>
   </si>
@@ -317,6 +317,405 @@
     <t>财神到</t>
   </si>
   <si>
+    <t>Hotfix.CaiShengDao.UIEntry</t>
+  </si>
+  <si>
+    <t>Module27.CaiShenDao.Module27Entry</t>
+  </si>
+  <si>
+    <t>Module27Entry</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>module28</t>
+  </si>
+  <si>
+    <t>603012</t>
+  </si>
+  <si>
+    <t>福临门</t>
+  </si>
+  <si>
+    <t>Hotfix.Fulinmen.UIEntry</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>module32</t>
+  </si>
+  <si>
+    <t>603006</t>
+  </si>
+  <si>
+    <t>点球大战</t>
+  </si>
+  <si>
+    <t>Module32.Football.MainPanel</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>module33</t>
+  </si>
+  <si>
+    <t>虎啸龙吟</t>
+  </si>
+  <si>
+    <t>Module33.longhudou.longhudou_InitProt</t>
+  </si>
+  <si>
+    <t>longhudou_InitProt</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>module38</t>
+  </si>
+  <si>
+    <t>战国史记</t>
+  </si>
+  <si>
+    <t>Module38.Game.MainPanel</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>module39</t>
+  </si>
+  <si>
+    <t>603013</t>
+  </si>
+  <si>
+    <t>淘金者</t>
+  </si>
+  <si>
+    <t>Hotfix.TJZ.TJZEntry</t>
+  </si>
+  <si>
+    <t>TJZEntry</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>module40</t>
+  </si>
+  <si>
+    <t>603002</t>
+  </si>
+  <si>
+    <t>跳高高</t>
+  </si>
+  <si>
+    <t>Hotfix.TGG.TGGEntry</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>module41</t>
+  </si>
+  <si>
+    <t>603010</t>
+  </si>
+  <si>
+    <t>金瓶梅</t>
+  </si>
+  <si>
+    <t>Module41.jpm.JPMEntry</t>
+  </si>
+  <si>
+    <t>JPMEntry</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>module42</t>
+  </si>
+  <si>
+    <t>603008</t>
+  </si>
+  <si>
+    <t>月光宝盒</t>
+  </si>
+  <si>
+    <t>Hotfix.YGBH.YGBHEntry</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>module43</t>
+  </si>
+  <si>
+    <t>百人牛牛</t>
+  </si>
+  <si>
+    <t>Module43.Code.Game71Panel</t>
+  </si>
+  <si>
+    <t>Game71Panel</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>module44</t>
+  </si>
+  <si>
+    <t>603009</t>
+  </si>
+  <si>
+    <t>乐高大电影</t>
+  </si>
+  <si>
+    <t>Hotfix.LGDY.LGDY_Entry</t>
+  </si>
+  <si>
+    <t>Module44.LGDDY.LGDDYEntry</t>
+  </si>
+  <si>
+    <t>LGDDYEntry</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>module45</t>
+  </si>
+  <si>
+    <t>五龙争霸</t>
+  </si>
+  <si>
+    <t>Module45.wlzb.WLZBEntry</t>
+  </si>
+  <si>
+    <t>WLZBEntry</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>module46</t>
+  </si>
+  <si>
+    <t>萌宠大作战</t>
+  </si>
+  <si>
+    <t>Module46.MCDZZ.MCDZZEntry</t>
+  </si>
+  <si>
+    <t>MCDZZEntry</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>module47</t>
+  </si>
+  <si>
+    <t>幸运水果机</t>
+  </si>
+  <si>
+    <t>Module47.XYSGJ.XYSGJEntry</t>
+  </si>
+  <si>
+    <t>XYSGJEntry</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>module48</t>
+  </si>
+  <si>
+    <t>福星高照</t>
+  </si>
+  <si>
+    <t>Module48.fxgz.FXGZEntry</t>
+  </si>
+  <si>
+    <t>FXGZEntry</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>module49</t>
+  </si>
+  <si>
+    <t>603005</t>
+  </si>
+  <si>
+    <t>武士斩杀</t>
+  </si>
+  <si>
+    <t>Hotfix.WSZS.UIEntry</t>
+  </si>
+  <si>
+    <t>Module49.wszs.WSZSEntry</t>
+  </si>
+  <si>
+    <t>WSZSEntry</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>module50</t>
+  </si>
+  <si>
+    <t>上海滩</t>
+  </si>
+  <si>
+    <t>Module50.sht.SHTEntry</t>
+  </si>
+  <si>
+    <t>SHTEntry</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>module51</t>
+  </si>
+  <si>
+    <t>603004</t>
+  </si>
+  <si>
+    <t>水果小玛丽</t>
+  </si>
+  <si>
+    <t>Hotfix.SGXML.UIEntry</t>
+  </si>
+  <si>
+    <t>Module51.SGXML.SGXMLEntry</t>
+  </si>
+  <si>
+    <t>SGXMLEntry</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>module52</t>
+  </si>
+  <si>
+    <t>十二生肖</t>
+  </si>
+  <si>
+    <t>Module52.SESX.SESXEntry</t>
+  </si>
+  <si>
+    <t>SESXEntry</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>module53</t>
+  </si>
+  <si>
+    <t>街机赛马</t>
+  </si>
+  <si>
+    <t>Module53.JJPM.JJPMEntry</t>
+  </si>
+  <si>
+    <t>JJPMEntry</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>module54</t>
+  </si>
+  <si>
+    <t>603003</t>
+  </si>
+  <si>
+    <t>埃及大冒险</t>
+  </si>
+  <si>
+    <t>Hotfix.Game.AJDMX.AJDMX_Entry</t>
+  </si>
+  <si>
+    <t>Module54.ajdmx.AJDMXEntry</t>
+  </si>
+  <si>
+    <t>AJDMXEntry</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>module55</t>
+  </si>
+  <si>
+    <t>通比牛牛</t>
+  </si>
+  <si>
+    <t>Module55.niuniu.Module55Panel</t>
+  </si>
+  <si>
+    <t>Module55Panel</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>module56</t>
+  </si>
+  <si>
+    <t>金鼠迎春</t>
+  </si>
+  <si>
+    <t>Module56.JSYC.JSYCEntry</t>
+  </si>
+  <si>
+    <t>JSYCEntry</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>module57</t>
+  </si>
+  <si>
+    <t>603001</t>
+  </si>
+  <si>
+    <t>冰球突破</t>
+  </si>
+  <si>
+    <t>Hotfix.BQTP.UIEntry</t>
+  </si>
+  <si>
+    <t>Module57.BQTP.BQTPEntry</t>
+  </si>
+  <si>
+    <t>BQTPEntry</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>module58</t>
+  </si>
+  <si>
+    <t>603016</t>
+  </si>
+  <si>
+    <t>金猪送福</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -325,7 +724,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Hotfix.CaiShengDao</t>
+      <t>Hotfix.JZSF</t>
     </r>
     <r>
       <rPr>
@@ -339,424 +738,6 @@
     </r>
   </si>
   <si>
-    <t>Module27.CaiShenDao.Module27Entry</t>
-  </si>
-  <si>
-    <t>Module27Entry</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>module28</t>
-  </si>
-  <si>
-    <t>603012</t>
-  </si>
-  <si>
-    <t>福临门</t>
-  </si>
-  <si>
-    <t>Hotfix.Fulinmen.UIEntry</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>module32</t>
-  </si>
-  <si>
-    <t>603006</t>
-  </si>
-  <si>
-    <t>点球大战</t>
-  </si>
-  <si>
-    <t>Module32.Football.MainPanel</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>module33</t>
-  </si>
-  <si>
-    <t>虎啸龙吟</t>
-  </si>
-  <si>
-    <t>Module33.longhudou.longhudou_InitProt</t>
-  </si>
-  <si>
-    <t>longhudou_InitProt</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>module38</t>
-  </si>
-  <si>
-    <t>战国史记</t>
-  </si>
-  <si>
-    <t>Module38.Game.MainPanel</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>module39</t>
-  </si>
-  <si>
-    <t>603013</t>
-  </si>
-  <si>
-    <t>淘金者</t>
-  </si>
-  <si>
-    <t>Hotfix.TJZ.TJZEntry</t>
-  </si>
-  <si>
-    <t>TJZEntry</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>module40</t>
-  </si>
-  <si>
-    <t>603002</t>
-  </si>
-  <si>
-    <t>跳高高</t>
-  </si>
-  <si>
-    <t>Hotfix.TGG.TGGEntry</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>module41</t>
-  </si>
-  <si>
-    <t>603010</t>
-  </si>
-  <si>
-    <t>金瓶梅</t>
-  </si>
-  <si>
-    <t>Module41.jpm.JPMEntry</t>
-  </si>
-  <si>
-    <t>JPMEntry</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>module42</t>
-  </si>
-  <si>
-    <t>603008</t>
-  </si>
-  <si>
-    <t>月光宝盒</t>
-  </si>
-  <si>
-    <t>Hotfix.YGBH.YGBHEntry</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>module43</t>
-  </si>
-  <si>
-    <t>百人牛牛</t>
-  </si>
-  <si>
-    <t>Module43.Code.Game71Panel</t>
-  </si>
-  <si>
-    <t>Game71Panel</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>module44</t>
-  </si>
-  <si>
-    <t>603009</t>
-  </si>
-  <si>
-    <t>乐高大电影</t>
-  </si>
-  <si>
-    <t>Hotfix.LGDY.LGDY_Entry</t>
-  </si>
-  <si>
-    <t>Module44.LGDDY.LGDDYEntry</t>
-  </si>
-  <si>
-    <t>LGDDYEntry</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>module45</t>
-  </si>
-  <si>
-    <t>五龙争霸</t>
-  </si>
-  <si>
-    <t>Module45.wlzb.WLZBEntry</t>
-  </si>
-  <si>
-    <t>WLZBEntry</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>module46</t>
-  </si>
-  <si>
-    <t>萌宠大作战</t>
-  </si>
-  <si>
-    <t>Module46.MCDZZ.MCDZZEntry</t>
-  </si>
-  <si>
-    <t>MCDZZEntry</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>module47</t>
-  </si>
-  <si>
-    <t>幸运水果机</t>
-  </si>
-  <si>
-    <t>Module47.XYSGJ.XYSGJEntry</t>
-  </si>
-  <si>
-    <t>XYSGJEntry</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>module48</t>
-  </si>
-  <si>
-    <t>福星高照</t>
-  </si>
-  <si>
-    <t>Module48.fxgz.FXGZEntry</t>
-  </si>
-  <si>
-    <t>FXGZEntry</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>module49</t>
-  </si>
-  <si>
-    <t>603005</t>
-  </si>
-  <si>
-    <t>武士斩杀</t>
-  </si>
-  <si>
-    <t>Hotfix.WSZS.UIEntry</t>
-  </si>
-  <si>
-    <t>Module49.wszs.WSZSEntry</t>
-  </si>
-  <si>
-    <t>WSZSEntry</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>module50</t>
-  </si>
-  <si>
-    <t>上海滩</t>
-  </si>
-  <si>
-    <t>Module50.sht.SHTEntry</t>
-  </si>
-  <si>
-    <t>SHTEntry</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>module51</t>
-  </si>
-  <si>
-    <t>603004</t>
-  </si>
-  <si>
-    <t>水果小玛丽</t>
-  </si>
-  <si>
-    <t>Hotfix.SGXML.UIEntry</t>
-  </si>
-  <si>
-    <t>Module51.SGXML.SGXMLEntry</t>
-  </si>
-  <si>
-    <t>SGXMLEntry</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>module52</t>
-  </si>
-  <si>
-    <t>十二生肖</t>
-  </si>
-  <si>
-    <t>Module52.SESX.SESXEntry</t>
-  </si>
-  <si>
-    <t>SESXEntry</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>module53</t>
-  </si>
-  <si>
-    <t>街机赛马</t>
-  </si>
-  <si>
-    <t>Module53.JJPM.JJPMEntry</t>
-  </si>
-  <si>
-    <t>JJPMEntry</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>module54</t>
-  </si>
-  <si>
-    <t>603003</t>
-  </si>
-  <si>
-    <t>埃及大冒险</t>
-  </si>
-  <si>
-    <t>Hotfix.Game.AJDMX.AJDMX_Entry</t>
-  </si>
-  <si>
-    <t>Module54.ajdmx.AJDMXEntry</t>
-  </si>
-  <si>
-    <t>AJDMXEntry</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>module55</t>
-  </si>
-  <si>
-    <t>通比牛牛</t>
-  </si>
-  <si>
-    <t>Module55.niuniu.Module55Panel</t>
-  </si>
-  <si>
-    <t>Module55Panel</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>module56</t>
-  </si>
-  <si>
-    <t>金鼠迎春</t>
-  </si>
-  <si>
-    <t>Module56.JSYC.JSYCEntry</t>
-  </si>
-  <si>
-    <t>JSYCEntry</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>module57</t>
-  </si>
-  <si>
-    <t>603001</t>
-  </si>
-  <si>
-    <t>冰球突破</t>
-  </si>
-  <si>
-    <t>Hotfix.BQTP.UIEntry</t>
-  </si>
-  <si>
-    <t>Module57.BQTP.BQTPEntry</t>
-  </si>
-  <si>
-    <t>BQTPEntry</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>module58</t>
-  </si>
-  <si>
-    <t>603016</t>
-  </si>
-  <si>
-    <t>金猪送福</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hotfix.JZSF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.UIEntry</t>
-    </r>
-  </si>
-  <si>
     <t>Module58.JZSF.JZSFEntry</t>
   </si>
   <si>
@@ -956,6 +937,12 @@
   </si>
   <si>
     <t>PoolRummy</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
   </si>
   <si>
     <t>表头</t>
@@ -2630,12 +2617,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L48" sqref="L48"/>
+      <selection pane="bottomLeft" activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4618,6 +4605,70 @@
         <v>299</v>
       </c>
     </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="1">
+        <v>400075</v>
+      </c>
+      <c r="H53" s="1">
+        <v>75</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" s="1">
+        <v>400076</v>
+      </c>
+      <c r="H54" s="1">
+        <v>76</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4642,60 +4693,60 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4703,39 +4754,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B14" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B15" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4743,63 +4794,63 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B18" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B21" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B22" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B23" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
@@ -4810,7 +4861,7 @@
         <v>270</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>272</v>
@@ -4822,7 +4873,7 @@
         <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>273</v>
@@ -4842,7 +4893,7 @@
         <v>270</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>272</v>
@@ -4854,7 +4905,7 @@
         <v>39</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>273</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -2619,10 +2619,10 @@
   <sheetPr/>
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q57" sqref="Q57"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3270,7 +3270,7 @@
         <v>106</v>
       </c>
       <c r="G16" s="1">
-        <v>207036</v>
+        <v>400072</v>
       </c>
       <c r="H16" s="1">
         <v>28</v>
@@ -4616,7 +4616,7 @@
         <v>99</v>
       </c>
       <c r="G53" s="1">
-        <v>400075</v>
+        <v>400027</v>
       </c>
       <c r="H53" s="1">
         <v>75</v>
@@ -4648,7 +4648,7 @@
         <v>106</v>
       </c>
       <c r="G54" s="1">
-        <v>400076</v>
+        <v>400072</v>
       </c>
       <c r="H54" s="1">
         <v>76</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="22035" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="344">
   <si>
     <t>##var</t>
   </si>
@@ -720,7 +720,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -730,7 +730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -921,6 +921,9 @@
     <t>TeenPattie</t>
   </si>
   <si>
+    <t>Hotfix.TeenPattie_Enter</t>
+  </si>
+  <si>
     <t>48</t>
   </si>
   <si>
@@ -955,7 +958,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -965,7 +968,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -974,7 +977,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -984,7 +987,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -999,7 +1002,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1009,7 +1012,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1024,7 +1027,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1034,7 +1037,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1052,7 +1055,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1062,7 +1065,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1119,7 +1122,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1129,7 +1132,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1139,7 +1142,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1148,7 +1151,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1158,7 +1161,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1168,7 +1171,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1177,7 +1180,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1192,7 +1195,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1202,7 +1205,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1212,7 +1215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1221,7 +1224,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1231,7 +1234,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1241,7 +1244,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1250,7 +1253,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1265,7 +1268,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1275,7 +1278,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1285,7 +1288,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1294,7 +1297,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1304,7 +1307,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1314,7 +1317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1323,7 +1326,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1338,7 +1341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1348,7 +1351,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1358,7 +1361,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1367,7 +1370,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1377,7 +1380,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1387,7 +1390,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1396,7 +1399,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1411,7 +1414,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1420,7 +1423,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1430,7 +1433,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1445,7 +1448,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1455,7 +1458,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1465,7 +1468,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1475,7 +1478,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1485,7 +1488,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1495,7 +1498,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1505,7 +1508,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1515,7 +1518,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1524,7 +1527,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1534,7 +1537,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1544,7 +1547,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1553,7 +1556,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1587,34 +1590,34 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1622,7 +1625,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1630,14 +1633,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1645,7 +1648,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1653,7 +1656,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1661,7 +1664,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1669,7 +1672,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1677,14 +1680,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1692,7 +1695,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1700,7 +1703,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1708,14 +1711,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1723,28 +1726,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2271,55 +2274,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2619,29 +2622,29 @@
   <sheetPr/>
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="18.25" style="1" customWidth="1"/>
-    <col min="8" max="9" width="17.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1238095238095" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.37142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.3714285714286" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.37142857142857" style="1" customWidth="1"/>
+    <col min="6" max="7" width="18.247619047619" style="1" customWidth="1"/>
+    <col min="8" max="9" width="17.247619047619" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="29.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="41.5083333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.3714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.247619047619" style="1" customWidth="1"/>
+    <col min="14" max="14" width="41.5047619047619" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.8761904761905" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.1238095238095" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4532,7 +4535,7 @@
         <v>40</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>85</v>
@@ -4543,13 +4546,13 @@
     </row>
     <row r="51" spans="2:17">
       <c r="B51" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G51" s="1">
         <v>400073</v>
@@ -4570,18 +4573,18 @@
         <v>85</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="2:17">
       <c r="B52" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G52" s="1">
         <v>400074</v>
@@ -4602,12 +4605,12 @@
         <v>85</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="2:17">
       <c r="B53" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>97</v>
@@ -4639,7 +4642,7 @@
     </row>
     <row r="54" spans="2:17">
       <c r="B54" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>104</v>
@@ -4685,68 +4688,68 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5083333333333" customWidth="1"/>
-    <col min="2" max="2" width="138.875" customWidth="1"/>
+    <col min="1" max="1" width="16.5047619047619" customWidth="1"/>
+    <col min="2" max="2" width="138.87619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4754,39 +4757,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4794,63 +4797,63 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B21" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B22" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
@@ -4861,7 +4864,7 @@
         <v>270</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>272</v>
@@ -4873,7 +4876,7 @@
         <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>273</v>
@@ -4893,7 +4896,7 @@
         <v>270</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>272</v>
@@ -4905,7 +4908,7 @@
         <v>39</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>273</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22035" windowHeight="12330"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="346">
   <si>
     <t>##var</t>
   </si>
@@ -720,7 +720,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -730,7 +730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -945,9 +945,15 @@
     <t>50</t>
   </si>
   <si>
+    <t>module75</t>
+  </si>
+  <si>
     <t>51</t>
   </si>
   <si>
+    <t>module76</t>
+  </si>
+  <si>
     <t>表头</t>
   </si>
   <si>
@@ -958,7 +964,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -968,7 +974,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -977,7 +983,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -987,7 +993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1002,7 +1008,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1012,7 +1018,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1027,7 +1033,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1037,7 +1043,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1055,7 +1061,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1065,7 +1071,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1122,7 +1128,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1132,7 +1138,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,7 +1148,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1151,7 +1157,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1161,7 +1167,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1171,7 +1177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1180,7 +1186,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1195,7 +1201,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1205,7 +1211,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1215,7 +1221,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1224,7 +1230,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1234,7 +1240,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1244,7 +1250,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1253,7 +1259,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1268,7 +1274,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1278,7 +1284,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1288,7 +1294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1297,7 +1303,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1307,7 +1313,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1317,7 +1323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1326,7 +1332,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1341,7 +1347,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1351,7 +1357,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1361,7 +1367,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1370,7 +1376,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1380,7 +1386,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1390,7 +1396,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1399,7 +1405,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1414,7 +1420,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1423,7 +1429,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1433,7 +1439,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1448,7 +1454,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1458,7 +1464,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1468,7 +1474,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1478,7 +1484,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1488,7 +1494,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1498,7 +1504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1508,7 +1514,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1518,7 +1524,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1527,7 +1533,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1537,7 +1543,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1547,7 +1553,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1556,7 +1562,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1590,34 +1596,34 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1625,7 +1631,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1633,14 +1639,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1648,7 +1654,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1656,7 +1662,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1664,7 +1670,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1672,7 +1678,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1680,14 +1686,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1695,7 +1701,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1703,7 +1709,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1711,14 +1717,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1726,28 +1732,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2274,55 +2280,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2622,29 +2628,29 @@
   <sheetPr/>
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L53" sqref="L53"/>
+      <selection pane="bottomLeft" activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.1238095238095" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.37142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.3714285714286" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.37142857142857" style="1" customWidth="1"/>
-    <col min="6" max="7" width="18.247619047619" style="1" customWidth="1"/>
-    <col min="8" max="9" width="17.247619047619" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="18.25" style="1" customWidth="1"/>
+    <col min="8" max="9" width="17.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6285714285714" style="1" customWidth="1"/>
-    <col min="12" max="12" width="29.3714285714286" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.247619047619" style="1" customWidth="1"/>
-    <col min="14" max="14" width="41.5047619047619" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.8761904761905" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.1238095238095" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="41.5083333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.125" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4613,7 +4619,7 @@
         <v>302</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>99</v>
@@ -4637,15 +4643,15 @@
         <v>85</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>97</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="2:17">
       <c r="B54" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>305</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>106</v>
@@ -4669,7 +4675,7 @@
         <v>85</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>104</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4688,68 +4694,68 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.5047619047619" customWidth="1"/>
-    <col min="2" max="2" width="138.87619047619" customWidth="1"/>
+    <col min="1" max="1" width="16.5083333333333" customWidth="1"/>
+    <col min="2" max="2" width="138.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4757,39 +4763,39 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B14" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4797,63 +4803,63 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B18" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B19" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B20" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B22" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B23" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:14">
@@ -4864,7 +4870,7 @@
         <v>270</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>272</v>
@@ -4876,7 +4882,7 @@
         <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>273</v>
@@ -4896,7 +4902,7 @@
         <v>270</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>272</v>
@@ -4908,7 +4914,7 @@
         <v>39</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>273</v>

--- a/LubanConfig/Datas/GameConfig.xlsx
+++ b/LubanConfig/Datas/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="22035" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Module_GameConfig" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -730,7 +730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -921,7 +921,7 @@
     <t>TeenPattie</t>
   </si>
   <si>
-    <t>Hotfix.TeenPattie_Enter</t>
+    <t>Hotfix.TeenPattie.TeenPattie_Enter</t>
   </si>
   <si>
     <t>48</t>
@@ -964,7 +964,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -974,7 +974,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -983,7 +983,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -993,7 +993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1008,7 +1008,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,7 +1018,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1033,7 +1033,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1043,7 +1043,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1061,7 +1061,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1071,7 +1071,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1128,7 +1128,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1138,7 +1138,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1148,7 +1148,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1157,7 +1157,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1167,7 +1167,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1177,7 +1177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1186,7 +1186,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1201,7 +1201,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1211,7 +1211,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1221,7 +1221,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1230,7 +1230,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1240,7 +1240,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1250,7 +1250,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1259,7 +1259,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1274,7 +1274,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1284,7 +1284,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1294,7 +1294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1303,7 +1303,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1313,7 +1313,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1323,7 +1323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1332,7 +1332,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1347,7 +1347,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1357,7 +1357,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1367,7 +1367,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1376,7 +1376,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1386,7 +1386,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1396,7 +1396,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1405,7 +1405,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1420,7 +1420,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1429,7 +1429,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1439,7 +1439,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1454,7 +1454,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1464,7 +1464,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1474,7 +1474,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1484,7 +1484,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1494,7 +1494,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1504,7 +1504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1514,7 +1514,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1524,7 +1524,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1533,7 +1533,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1543,7 +1543,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1553,7 +1553,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1562,7 +1562,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1596,34 +1596,34 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1631,7 +1631,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1639,14 +1639,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1654,7 +1654,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1662,7 +1662,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1670,7 +1670,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1678,7 +1678,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1686,14 +1686,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1701,7 +1701,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1709,7 +1709,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1717,14 +1717,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1732,28 +1732,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2280,55 +2280,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2631,26 +2631,26 @@
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O51" sqref="O51"/>
+      <selection pane="bottomLeft" activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="18.25" style="1" customWidth="1"/>
-    <col min="8" max="9" width="17.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1238095238095" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.37142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.3714285714286" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.37142857142857" style="1" customWidth="1"/>
+    <col min="6" max="7" width="18.247619047619" style="1" customWidth="1"/>
+    <col min="8" max="9" width="17.247619047619" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="29.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="41.5083333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.3714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.247619047619" style="1" customWidth="1"/>
+    <col min="14" max="14" width="41.5047619047619" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3714285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.8761904761905" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.1238095238095" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4694,10 +4694,10 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5083333333333" customWidth="1"/>
-    <col min="2" max="2" width="138.875" customWidth="1"/>
+    <col min="1" max="1" width="16.5047619047619" customWidth="1"/>
+    <col min="2" max="2" width="138.87619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
